--- a/src/utils/del/entity_df.xlsx
+++ b/src/utils/del/entity_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,106 +448,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>upiin</t>
+          <t>upiout</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>upiout</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>toatm</t>
+          <t>upiin</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>samraj</t>
+        </is>
+      </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>toecm</t>
+          <t>ftimps</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lotuscolo</t>
+          <t>swiggy</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>shivajina</t>
+          <t>youarepayi</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>visadrefund</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>jupiterrewards</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>mgsevamandirtru</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>pos</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
         <v>1</v>
       </c>
     </row>

--- a/src/utils/del/entity_df.xlsx
+++ b/src/utils/del/entity_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,62 +452,92 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>upiin</t>
+        </is>
+      </c>
       <c r="B3" t="n">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>upiin</t>
+          <t>toatm</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>samraj</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ftimps</t>
+          <t>samraj</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>swiggy</t>
+          <t>toecm</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>youarepayi</t>
+          <t>ftimps</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>mdmastofa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>poojanmanishvig</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>1</v>
       </c>
     </row>

--- a/src/utils/del/entity_df.xlsx
+++ b/src/utils/del/entity_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,98 +446,7508 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>upiout</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
-        <v>180</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>upiin</t>
+          <t>vigpritimanish</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>toatm</t>
+          <t>upiout</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>aiyazanwarqureshi</t>
+        </is>
+      </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>samraj</t>
+          <t>POOJAN MANISH VIG</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>toecm</t>
+          <t>murarilalmahendrake</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ftimps</t>
+          <t>qureshifaiyazanwar</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mdmastofa</t>
+          <t>upiin</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>poojanmanishvig</t>
+          <t>deeppatange</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>dmartready</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>riyazuddinallauddin</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>snapmintcreditadvi</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sanchaysachinthaln</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>madnanirithikmanoj</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sanjeevvasudeochin</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>jiyauddin</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>faiyazanwarqureshi</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nikatrohitjyotiram</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>javedlatifkhan</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>mohdahtesham</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>rizwanmajidkhan</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>atw xxxxxx</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ajinkyasureshkhobr</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>haiderali</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>mrganeshantevar</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>shaikhahmedrazara</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>areydoodhandgener</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>toatm</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sakecprintroom</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>shariquesajidshaik</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>mumbaimetroqrtick</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>medcsi</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>pos xxxxxx</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>bhoomimanishvig</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>fyerssecuriti</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>zoebalikhan</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>nwd</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>bharatpetroleumcor</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>jyotijitendrabindr</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>irfankhan</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>mauhammadfarukh</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>meetyogeshkacha</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>adityashyamjaiswal</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>shiprasharma</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>pateljainishdinesh</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>mohammadshafiqkhan</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>hirastores</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>farhatabdulraufsh</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>mohammedmurtaza</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>warangedryfruitst</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>shivajatanakumargir</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>lalmanlaundry</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>bharatpemerchant</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>siddhivinayakkirana</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>vickymurliadvani</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>nasimuddin</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>yohananthonydsouz</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>irctcuts</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>mohammadrahbar</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>mir</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>rahulkumarpandiya</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>yohananthonyoksbi</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>riyadineshmaurya</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>nisargjineshsheth</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>mohammednasiransar</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>parvinranabharvad</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>hemantautomobile</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>harshkrishnadevdub</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>naazneenabdulgaffa</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>riyazuddingenerals</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>zomato</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>laxmifoodsandbeve</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>paidviacred</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>shivisweetsandsna</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>paytmuser</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>giteshpatel q</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>indianrailwaystick</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>desirecafeandsnac</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>sagarrajnathprajap</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>nwd xxxxxx</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>rohitrameshdfcbank</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>sampathvamanshetti</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>farzanaabdulrashid</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>santoshbhaglusahu</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>kotiansatishkorag</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>rohitanandsalonan</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>mohammadmujaffarza</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>bchemio</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ansanirajnathpande</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>kavitadineshgowda</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>abflpostpaidpayno</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>safalchemist</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>bharatkparmar</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>rzpxprivatelimitedn</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>zaikaaytm</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>irsad</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>mohammedayaansulem</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>pasabhairanabhaibh</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>addmoneytopytm</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>rajrakeshkumarsing</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>jayahareshrat</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>mrsherineadaikalam</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>stucred</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>misssakshiankushd</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>jamilahmedbarkata</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>mohammadhanifansar</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>rehanalamansari</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>vijaylaxmirestauran</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>gemart</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>noorjahanabdullaha</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>indianoilpetrolpu</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>hirsinghrajput</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>nareshmangilalpand</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>vasantvitthalbanga</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>akramrehmatalisha</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>sicreva</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>misspranjalprakash</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>prakashpatil</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>mubeenamohdanwarq</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>tejramjiyalalrasto</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>solankiteacompany</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>mohdzubairishaqie</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>samraj</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>girdharlakhmichand</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>mumon</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>foowmiek</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>mrjabirali</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>tajkingshawarma</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>indianclearingcorpor</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>vaziranisahilkisho</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>krazybee</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>wowmomochembur</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>shabnamanwar</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>manojkumarvinayak</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>abduljabbarabdulg</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>sicrevacapitalser</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>sonarphoolchandnan</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>sampathvamanng</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>sureshdairy</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>aryanchandrakanta</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>garagepreneursinter</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>jioprepaidrecharge</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>haqqanichinesecorn</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>amritamanojfcbank</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ganeshvilasgaikwad</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>raeeshasaifi</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>sahilramzandawdani</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>shoaibabdulrashid</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>manjunathkrishnagowd</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>shadabansari</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>riyazali</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>sonaliarora</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>noordiagnosticcent</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>kaababdulbasit</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>kamalpreetsingh</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>fazalafzalbhati</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>mohdirfanamirahme</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ronakgurudasvarava</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>bny</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>shaheenajafardamka</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>lziexmst</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>truecreditspvtlt</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>shaikhmohammedimra</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>himalimukeshparad</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>missnikitayadav</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>amazonutib</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>pushpadevinagendra</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>laljibeedishop</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>vinayprakashjain</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>pramodgovindnair</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>mohammadhanifvg</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>touhidnajeerquresh</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>mrsswapnabomiaybo</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>yedekarmasala</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>jyotishivbhagwanso</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>quadpflupi</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>mohammedsaeedmoham</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>nextbilliontechnolonishvig</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>upiret</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>setubrokentusk</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>yapl</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>redvelvetthecake</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>gopichandgupta</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>newbombayautosupp</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>qihuffongyd</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>nextbilliontechnolog</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>krishsanghvipranav</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>crvpos</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>jahex</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>magicpin</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>jrolil</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>mahendrajairajtamb</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>pradhanpanbhandar</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>nishiranjanshyamcha</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>indrakumarsingh</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>thorgavankarneeraj</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>atulamehrotra</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ansarimohddanish</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>dubeypaneershop</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>jio</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>atwarikartikpandit</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>bablidevi</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ibbillpaydr</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>jagmeetsinghmiddha</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>avenuefoodplazapv</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>khanmunzoor</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>nirmalaprakashpooj</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>corporatenodalup</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>tenzinthardo</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>vimlashawlsprop</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>mohdibrahimabdul</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>bilalahmadmir</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>hastimalsolanki</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>shreesavariyaicec</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>ftimps</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>aartisunilhinduja</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>toecm</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>niranjbinesh</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>msswethambariranga</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ambchargeforjun</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>zerodhabrokingltd</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>iramriyazkhan</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>bharatpe</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>anwarabdulkhaliks</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>rahmaangeneralstor rahmanshaikh</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ashishkumarjaswant</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>tuniz</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>kundankumar</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>govind q</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>hussainmehmoodkhan</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>abdulkalamfaruki</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>moeedahmed</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>ritikaravindraprak</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>khajamahuddinsyed</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>fahadsajidalishai</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>krishnabhanda</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>msvaishnavivikass</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>hitendravijaykumar</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ahmadfarooqkaradiy</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>achhelalbind</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>mayankjain</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>muhammedarshadaala</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>namdeogangarammore</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>anandcsachdev</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>jalaluddinshah</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>vidyavatisshetty</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>hksip</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>maheshnarayannadar</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>mrshaikhahmedraza</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>irshadmohammadmans</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>ola</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>alihazrat</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>hasmukhraiandcogh</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>myntradesignspriva</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>gppb</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>dcintlpostxnmarkup</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>laxmanlalteli</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>shabinaanwarquresh</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>rev qureshi</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>maqsoodkhan</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ajrulsk</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>foodvillafamilyre</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>zahidtariqhussain</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>chemburce</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>rubiyaarubiyaa</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>raisliyakatkhan</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>mohdgulamsabirkha</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>dc</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>shagirchotukhanpat</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>ashalathakrishnah</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>naturalschembur</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>fdrl</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>snehalatasantoshma</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>khannoorullahrafat</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>aveshismailansari</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>priyashankar q</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>pranavsobhupender</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>shanepunjab</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>missreenadevi</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>sachinsanathandhav</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>rimarajendrakumars</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>hiteshsunilpatil</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>trpoljh</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>shilpasushantpande</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>aminbhaidaudbhaikh</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>babasnackscorner</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>mshsdautocarecen</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>faisalalikhan</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>mdmastanaansari</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>ashokramashankarya</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>quartershospitalit</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>pushparajenterprise</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>mrpratikkumardine</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>mariasiluvaimnadar</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>faiyazqureshi</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>azadlatifkhan</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>ramchandrapal</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>gurpreetsingh</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>deepsingh q</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>shersinghsojabba</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>rashidmusttafa</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>albaikfastfood</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>amritamanojkeswani vandanakes</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>yewaleaytm</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>saikrupasnackscor</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>bppetrolpumpradi</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>dmart</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>sandeepshankardhul</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>sagarkishorevazira</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>tulsigangamedical</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>msshreechamunda</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>ashwinianantkondvi</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>moimran</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>bkdesignercollect</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>sangam sngmkpr</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>vishalvishwasshind</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>premsinghsardarsing</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>rajkumarm</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>nmumbai</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>msvijanmedicalan</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>jagadishsahebraopa</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>mobikwikmerchant</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>bcb q</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>indumatipatne</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>aryavipulshukl</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>sanskardnyaneshwarkicici</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>sahilvijaygaikwad</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>mrrameshvilasyeda</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>tusharmanojchugh</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>singhdevi</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>surajkumar</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>khanmohammedsiraj</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>mohdm</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>akhileshkumarbind</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>cwphoenixmarketci</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>armanalishaikh</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>gauravrathore</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>mohammedamanansari</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>whizdminnovations</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>socialworthtechnol</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>atulkarshandasrajg</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>nasir</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>mrranukhan aryankhan</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>rajkumarpal</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>manojgmadnani</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>harshvinodwadhwa</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>kafilahmedaqueela</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>sahilkishorevazira</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>poojanmanishvig</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>poojariraghavedrav</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>vishnup vishnuparakkal</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>kjsomaiyamedical</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>rohitchandaram</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>rohitchandaramchou</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>mahavirchikki</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>fincfriendsprivate</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>zakirullasalamatula</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>chiragdhaba</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>shyamsundersharma</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>kaushalyadevi</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>janaksilwal</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>mohdrijwan</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>keshavmohanlalgela</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>vishalkajare</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>naginakhatoonshah</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>hajitikkacorner</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>varunsrinivasdasar</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>tabassumalimrehman</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>deepakdoulatrammans</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>umangnareshjain</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>mrmdazam</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>shubhamelectrichar</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>vaneetkumar</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>ghodkesudeshkantil</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>dhruvharishnambiar</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>jyotigeneralstores</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>rohinibandunaik</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>ziarulislam</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>bharuchaautoservic</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>satkarfitness</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>nafismuttonshop</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>paljag q</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>afzalsmaofamilyr</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>shivanandguptaso</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>niyazullahshafatull</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>jineetthakkar</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>mattagurucharansin</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>shalujjitendragup</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>shycafeandrestaur</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>mastergauravdhanaj</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>ghanshyam</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>vishwanathvinayaks</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>posdecchg</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>ranjankumarparit</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>osamaabdussalamkha</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>mastermohammedumai</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>mrnabilshakeelbad</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>nextbillionesb</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>rajeshmohantymohant</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>kuntalprakashoksbi</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>gavahaneshivajigan</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>pradhumshambhunath</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>chandrakantppatel</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>rohitrameshwahwal</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>paidviacreda</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>madhumitaajaydixit</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>ravikumarpatidars</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>vinodkumarharinaray</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>kusumrolls</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>diptishampuri</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>shreesiddhivinayak</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>leenasunilwadhare</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>manojkumarnirmal</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>madanlalaggarwal</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>leeladevi</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>tenzinpenthok</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>alfaxerox</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>mohammedyusuf</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>yogeshkarwadkar</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>kharwest</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>cafenooranimilkda</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>sahilcsc</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>riyajahamadrahamat</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>shettyautoservices</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>amaannaushadshaikh</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>sionxx</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>shahanchorkutchhi</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>mrramachandranmasa</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>newgenericadharme</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>mokareem karimkhan</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>gyfly</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>kuntalprakashthaku</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>gurukrupaprovision</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>pawaskaryogeshchan</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>mohammadmehtabmoha</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>shreemanjunathlunc</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>vaidjaysukhharakha</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>merwans</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>punjabdairyandgen</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>amarendrachaudhary</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>neeraj paytmqrff</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>kunwarbahadur</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>nmsnareshmultisto</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>sukhdevsingh</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>vickyjewellery</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>mohdshahnawaz</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>panarashobhanarasi</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>jyotipal pald</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>shreekrishnabhavan</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>govindchauhan</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>monginisnoorenterp</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>vinodgiridharigup</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>dineshkumarrajendr</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>praveenamarbahadur</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>conradmosesferrao</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>manojmamania</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>candiespalihill</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>sohamsudarshanyelv</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>mohdrizwantayubali</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>mohdsaydahusain</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>aminahmadsunasara</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>sureshmahadumandav</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>mmuralikrishnan</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>paidvi</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>ashapraveenbangera</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>jandgretails</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>purnachandradas</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>mohammadrezaabbas</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>rcuexaig</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>poojanma</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>manishpanipuri</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>vinodchandrakantja</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>breaknbite</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>aasthapaanipurish</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>avraghavan</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>kiniscauseway</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>navinkumarjha</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>boladepriyal</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>aadarshnareshkusum</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>healthifymerazor</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>billionbrainsgarage</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>ramjanamgupta</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>pennydrop</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>mohanlalmotiramjos</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>sahiltm</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>mohammadwasimkhan</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>abdulwahid</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>janmar</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>mspemayangchen</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>tabasumkamallones</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>sureshkumarsojodh</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>swatibhatia</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>durgabahadurmuktan</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>paytonobl</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>khatabook</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>meghnathatwaripand</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>mastermansoormainu</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>rakeshkumar</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>mmoghatkopar</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>mohdumair</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>wasiuzzamanabdultawa</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>sirajkhan</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>salauddinansari</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>shyamkumaryadav</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>iqbal</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>tinkusah</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>joeyspizzaandheri</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>shaguftanasirqures</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>akilismailkhan</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>mohsinanwarhusainsha</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>jainulavadinmohdg</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>mohammadsohailkhan</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>amazonsellerservic</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>mrzaidchandrikas</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>badredanishshamsud</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>parnavonlinesoluti</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>omkarnathpal</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>laxmikantharendrad</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>powerlook</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>chandanstoresdryfr</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>dhammickbhimrajshi</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>razorpayzomato</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>saeedanwarshaikh</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>shubhamsanjaydhuma</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>sudhanshudevidasra</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>kiransuzuki</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>shashiprafulsachde</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>khanmohammedsiraj na</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>manojgopaldasmadn</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>chinamagic</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>manishravindrapati</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>harshalgeneralstor pai</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>minakshinikhilrane</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>salunkevivekvinu</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>bhanushaliaryannil</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>inlakschemist</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>dayyanmoinuddinkha</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>jaiswarrajendrapra</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>northernarccapi</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>chandmiyanshamshuddi</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>tabrezalammubinqu</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>irfanchotekhan</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>abdulrahman</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>eaw</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>tatacliq</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>fatemahakimudaipurwa</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>sna</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>salawddinmohdhusen</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>naturalsbandra</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>pai</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>mohdtahirmohdisha</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>sanamaaz</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>mdomarfarukmandal</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>mehadisuhelkhan</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>shaikhmehboobmakab</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>ismailkhan</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>siddquiaaminafsar</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>jyotifastfoodcent</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>fyimo</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>pritamhardware</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>hasibulllahmobilec</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>maheshnarayanvh</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>madhavchemistandl</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>sahilcornerstore</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>aprjun</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>sameerarshadsn</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>sameerarshadshaikh</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>shreerampavbhaji</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>dineshmohanlalchou</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>shreeganesh vadaandsl</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>chaipatti</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>mukhtarabdulsattar</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>mohammadarifshamsu</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>adilejazshaikh</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>shambhaviah</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>amitkumartiwari khanola</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>mrsajauddin bharatpe</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>chalomobilitypriva</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>abdulrazakp</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>ibrahimsuroorkhan</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>theindianfilmcomb</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>croma</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>shaikhfazlurehman</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>ofle</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>chaapsandmore</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>jitendrakumarchhat</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>shrisitlamatafars</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>gulfamansari</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>vaswanibookdepot</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>dimplemahaveernaga</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>kiranandgeneralst</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>dayanandnarayanpoo</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>amardevdinanathpra</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>khemanandpharma</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>laltaprasadrkeshar pai</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>sonufashion</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>eshamohansinghmal</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>anilrameshsharma</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>uzaifansari</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>upimerchant</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>mdarif</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>jiomart</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>sabban</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>momonish</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>mohdnaushadayubha naushad</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>rakeshdmestry</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>kapilmaheshwariso</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>arammilkbar</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>bigtreeentertainmen</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>raud</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>rutujasahebrao punb</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>parvezmohdachchan</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>alaikalights</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>pansaresaylidattat</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>newjaswantelectric</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>nabiahmedshaikh</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>tlgindiapv</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>shreemahaveerchemi</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>raeesahmedshaikh</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>vishalgupta</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>virendrageneralsto</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>mrsmaimunissagulsh</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>rahmaangeneralstor</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>dhannajaybiswkarma</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>jjdreamzz</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>xxxxxxxxxxx</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>sujathasiledar</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>chimanmora</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>akhilchalla</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>chatlaaakshunrames</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>shamser</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>msrabkaasenterprise</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>rizwanahmedansari</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>rishmunisingh</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>shaikhabufaishalf</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>mdpravez</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>jafarmehdisarwarm</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>juberkhan</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>farmanashrafansari</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>mohammedtauheedmoham</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>oid mraiyazanwa</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>omegat</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>prasadbabajimanche</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>nizam</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>sawlila</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>mewalaljamunaprasad</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>spshahco</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>revmhtcvv</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>gaikwadsachinashok</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>gayasuddeen</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>shahidilyasasamdi</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>zestmoney</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>ratn</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>gulabchandyadav</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>ratanteastall</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>swiggy</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>bherulalkalulaljai</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>rishikeshsatishpan</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>rajashreejayprakash q</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>jayeshprbhakarmhat</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>ajaylalmunigupta</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>kalpataruretailven</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>earlysalarypchfldi</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>sameershaikh</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>ruwabalibasharata</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>vikashkumar</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>shahnawaz bharatpe</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>ajamatali</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>mohdasim</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>omegastationeryand</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>mrsujitbhaskarkad</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>sherlymedicalandg</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>sajidqureshi</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>kausarsajidahmeda</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>shahnawazmustaqahm</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>subhanahmedansari</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>santoshjawahargupta</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>nileshbherulalrath</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>sunilshankarthokal</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>mohdalitahakalbe</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>mahavirmedicaland</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>sanjivservicestati</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>gulammustafasoabd</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>laxmimedicalgenera</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>mrjamshedkasimsay</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>ramsamujh</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>mumbaichinese</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>blinkit</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>syedjalaltawakkoli</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>chetanmanoharkambl</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>sudheersabhajeetpa</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>rizwanzardi</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>ayushigeneral</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>AIYAZ ANWAR QURES-QURESHI.AIYAZ12</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>abdullatifsiddiki</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>nafisahamad</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>shabnamanwarquresh</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>sxobro</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>rakeshpalsoramswaroo</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>krishnadairy</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>julsep</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>mdmastofa</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>sameernizamilahi</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>whizdmfinancepriva</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>nandustationeryand</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>transactreetechnolo</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>mosikendar</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>srkrefreshmentllp</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>transunioncibillim</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>ambchargeforaug</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>vinodkumarsingh</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>riyazmohdanwarqur</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>facebookindiaonlin</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>pgsettlement</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>manjuadaikalamfern</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>puransinghnibsingh</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>altabhusain</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>hanfy</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>maansaab</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>surinderkumarsharm</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>anilkumar q</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>suvidhadepartmental</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>tseringpalmo</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>dickey</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>mohdparvez</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>vickykumar</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>surinderpal surender</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>neelkamalfillingst</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>piyushpalsosurind</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>fejanqureshicollec</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>azharniyazkhan</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>mehboobpathan</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>hennesnmauritz</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>tahaazizmithaiwala</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>nizamuddinjamaluddi</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>akbarmungfalistall</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>kishorkumar</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>paulmahinder</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>newmaamedicalstor</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>billdesktez</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>armanhussain</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>mohdtaufiq</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>aslamchickencorner</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>imran kkbk</t>
+        </is>
+      </c>
+      <c r="B747" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>jitensahni</t>
+        </is>
+      </c>
+      <c r="B748" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>anshulkishorerosia</t>
+        </is>
+      </c>
+      <c r="B749" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>mrramlalmourya</t>
+        </is>
+      </c>
+      <c r="B750" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>roopsingh</t>
+        </is>
+      </c>
+      <c r="B751" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>mrnokhuram</t>
+        </is>
+      </c>
+      <c r="B752" t="n">
         <v>1</v>
       </c>
     </row>

--- a/src/utils/del/entity_df.xlsx
+++ b/src/utils/del/entity_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,108 +446,28 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>upiin</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>upiout</t>
+          <t>sanjan</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>toatm</t>
+          <t>shubhy</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>toecm</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>lotuscolo</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>shivajina</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>visadrefund</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>jupiterrewards</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>mgsevamandirtru</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>pos</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
         <v>1</v>
       </c>
     </row>

--- a/src/utils/del/entity_df.xlsx
+++ b/src/utils/del/entity_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,26 +448,56 @@
     <row r="2">
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sanjan</t>
+          <t>payu.in</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>sanjan</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>922040061366717</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>shubhy</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>922040070298814</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
     </row>

--- a/src/utils/del/entity_df.xlsx
+++ b/src/utils/del/entity_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B220"/>
+  <dimension ref="A1:B626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,2133 +448,2133 @@
     <row r="2">
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
-        <v>199</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gujaratc</t>
+          <t>POOJAN MANISH VIG</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>paragmi</t>
+          <t>qureshifaiyazanwar</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>madhavr</t>
+          <t>deeppatange</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>madhavrahane</t>
+          <t>aiyazanwarqureshi</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>shrisaiagency</t>
+          <t>riyazuddinallauddin</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>madhav</t>
+          <t>murarilalmahendrake</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vithobac</t>
+          <t>madnanirithikmanoj</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>radhagk</t>
+          <t>jiyauddin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>aalhadan</t>
+          <t>sanjeevvasudeochin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>amulwd</t>
+          <t>sanchaysachinthaln</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>paytm</t>
+          <t>faiyazanwarqureshi</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>belapura</t>
+          <t>nikatrohitjyotiram</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>chinmay</t>
+          <t>relianceretaillimi</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>akhilesh</t>
+          <t>mohdahtesham</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>manishk</t>
+          <t>rizwanmajidkhan</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>oclnodalofficeaccount</t>
+          <t>haiderali</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sandeepd</t>
+          <t>ajinkyasureshkhobr</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>atlantic</t>
+          <t>javedlatifkhan</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>santhosh</t>
+          <t>areydoodhandgener</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>mrsusrut</t>
+          <t>shariquesajidshaik</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>mrsbhara</t>
+          <t>murarilalmahendras</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>rahulram</t>
+          <t>zoebalikhan</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nishapra</t>
+          <t>xxxxxxxx</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>rajendra</t>
+          <t>jyotijitendrabindr</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>missshre</t>
+          <t>nwd</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sharwank</t>
+          <t>mauhammadfarukh</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>snehadha</t>
+          <t>bharatpe</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sangeetc</t>
+          <t>shaikhahmedrazara</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>paytmuti</t>
+          <t>pateljainishdinesh</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>shellysh</t>
+          <t>shivajatanakumargir</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sivasakth</t>
+          <t>mohammedmurtaza</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ratneshn</t>
+          <t>farhatabdulraufsh</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>claraman</t>
+          <t>vickymurliadvani</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>nitinsh</t>
+          <t>mohammadrahbar</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>oclnodal</t>
+          <t>siddhivinayakkirana</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bibhutibhusan</t>
+          <t>medcsi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>kavitara</t>
+          <t>naazneenabdulgaffa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>nitinsub</t>
+          <t>rahulkumarpandiya</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>prateek</t>
+          <t>riyazuddingenerals</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>sushilk</t>
+          <t>irfankhan</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ashaanil</t>
+          <t>adityashyamjaiswal</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mohsinal</t>
+          <t>mohammednasiransar</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>vadirajj</t>
+          <t>shaikhmohdhashimy</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>aishwarya</t>
+          <t>parvinranabharvad</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>passionp</t>
+          <t>sagarrajnathprajap</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>manishas</t>
+          <t>yohananthonyoksbi</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ulhasv</t>
+          <t>harshkrishnadevdub</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sumitgu</t>
+          <t>riyadineshmaurya</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>one97com</t>
+          <t>kavitadineshgowda</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>shiopraka</t>
+          <t>giteshpatel</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>priyanka</t>
+          <t>sampathvamanshetti</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ishmeetm</t>
+          <t>pasabhairanabhaibh</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>divyakun</t>
+          <t>rajrakeshkumarsing</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>cjdarcl</t>
+          <t>zaikaaytm</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>paytmrec</t>
+          <t>paidviac</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>chetnas</t>
+          <t>mohammadmujaffarza</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>mrrajiv</t>
+          <t>farzanaabdulrashid bharatpe</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>pranjali</t>
+          <t>nasimuddin</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>madhuris</t>
+          <t>ansanirajnathpande</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>vidyadh</t>
+          <t>bchemio</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>anupkve</t>
+          <t>mohammadshafiqkhan q</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>payu.in</t>
+          <t>mohammadshafiqkhan</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>rekhanar</t>
+          <t>mohammedayaansulem</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>cafekada</t>
+          <t>yohananthonydsouz</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>sampatbh</t>
+          <t>rohitanandsalonan</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>nivruthi</t>
+          <t>irsad</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>manishp</t>
+          <t>adityabirlafinance</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>googlepay</t>
+          <t>tejramjiyalalrasto</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>nairaisw</t>
+          <t>santoshbhaglusahu</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>keyarani</t>
+          <t>jamilahmedbarkata</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>rakeshcha</t>
+          <t>akramrehmatalisha</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>santoshs</t>
+          <t>mohammadhanifansar</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>mranubha</t>
+          <t>jayahareshrat</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>neelamer</t>
+          <t>mumbaifarsan</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>jignaaks</t>
+          <t>mubeenamohdanwarq</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>janhaviv</t>
+          <t>prakashpatil</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>apibanki</t>
+          <t>nareshmangilalpand</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>deepakku</t>
+          <t>misssakshiankushd</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ibuser-janhavivinayakbhise</t>
+          <t>noorjahanabdullaha</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ramavatar</t>
+          <t>nisargsheth</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>neethysr</t>
+          <t>sonarphoolchandnan</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>deepakkum</t>
+          <t>tatapowerltd</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>nirajku</t>
+          <t>foowmiek</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>anandkum</t>
+          <t>misspranjalprakash</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>kailashp</t>
+          <t>sanchaythalnerkar</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>manishka</t>
+          <t>vazirani</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>amithari</t>
+          <t>bharatpemerchant</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>vishnup</t>
+          <t>raeeshasaifi</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>divyakunallala</t>
+          <t>nasimuddin q</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>bindhusa</t>
+          <t>shadabansari</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>bharatpem</t>
+          <t>mrsherineadaikalam</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ayushsh</t>
+          <t>manjunathkrishnagowd bharatpe</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>akshayraosaheb</t>
+          <t>ganeshvilasgaikwad</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ketanvit</t>
+          <t>rehanalamansari</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>sippyrup</t>
+          <t>atwarikartikpandit</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>dineshpr</t>
+          <t>nisargjineshsheth</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>kabilanm</t>
+          <t>girdharlakhmichand</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>mukundsh</t>
+          <t>vijaylaxmirestauran</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>sukainam</t>
+          <t>sicrevacapitalser</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>vinayakv</t>
+          <t>javedsayyedyusufa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ashishku</t>
+          <t>nextbilliontechnolog</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>cred</t>
+          <t>paytmqr</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>majiamd</t>
+          <t>nirmalaprakashpooj</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ajeetram</t>
+          <t>mohammedsaeedmoham</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>indianba</t>
+          <t>bharatkparmar q</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>bipinpun</t>
+          <t>imumbai</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>spentashipping&amp;logisticspvt.limited</t>
+          <t>khanmunzoor</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ravidev</t>
+          <t>manojkumarvinayak</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>missgitasubhashwagh</t>
+          <t>gopichandgupta</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>rajeevku</t>
+          <t>thorgavankarneeraj</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>subrotbi</t>
+          <t>riyazali</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>santosharjunthorat</t>
+          <t>sahilramzandawdani</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>bromarkc</t>
+          <t>setubrokentusk</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>mirajm</t>
+          <t>wowmomochembur</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>msrashmisinha</t>
+          <t>kotiansatishkorag</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>shyamkam</t>
+          <t>mohammadhanifvg</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>welcomem</t>
+          <t>krishsanghvipranav</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>shribhag</t>
+          <t>aryanchandrakanta</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>sunikach</t>
+          <t>irfanilyaskhan</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>neelkanth</t>
+          <t>qihuffongyd</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>manishapande</t>
+          <t>fazalafzalbhati</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>parag</t>
+          <t>mohdirfanamirahme</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>roopeshv</t>
+          <t>mrsswapnabomiaybo</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>gcmmfltde-cmsaccoy</t>
+          <t>vinayprakashjain</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>rajeshku</t>
+          <t>touhidnajeerquresh</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>horizonstarshippingagency</t>
+          <t>jrolil</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>anubhav</t>
+          <t>kaababdulbasit</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>batrakav</t>
+          <t>bitlightinfotech</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>majiamdarkbrohamare</t>
+          <t>jyotishivbhagwanso</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>shobhits</t>
+          <t>indrakumarsingh jiop</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>cashfree</t>
+          <t>nishiranjanshyamcha</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>rupendra</t>
+          <t>ashishkumarjaswant</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>vidyadhargovindmungale</t>
+          <t>iramriyazkhan</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>rkanand</t>
+          <t>ronakgurudasvarava</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>916010021509567</t>
+          <t>hastimalsolanki</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ulhasvasudeowani</t>
+          <t>lziexmst</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>yuvrajkr</t>
+          <t>shaheenajafardamka</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>chavanan</t>
+          <t>mohdibrahimabdul q</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ajaytb</t>
+          <t>mohdm</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>misspooj</t>
+          <t>ansarimohddanish</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>anuragko</t>
+          <t>dmart</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>sanketsa</t>
+          <t>jio</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>shivshank</t>
+          <t>bablidevi</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>mirchanda</t>
+          <t>surajkumar</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>cradj</t>
+          <t>khanmohammedsiraj</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>nextbill</t>
+          <t>ritikaravindraprak</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>seemaen</t>
+          <t>hussainmehmoodkhan</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>shakilah</t>
+          <t>tuniz</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>shashira</t>
+          <t>muhammedarshadaala</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>nikhilmu</t>
+          <t>ahmadfarooqkaradiy</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>mrannib</t>
+          <t>nwxvwtofenaz</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>akashmo</t>
+          <t>hitendravijaykumar</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>shyamthi</t>
+          <t>ubin</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>fedexexp</t>
+          <t>rthane</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>jayshri</t>
+          <t>fahadshaikh</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>drjairaj</t>
+          <t>khajamahuddinsyed</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>spentashipping&amp;logisticspvtltd</t>
+          <t>moeedahmed</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>swiggy(razorpay)</t>
+          <t>anwarabdulkhaliks</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>sachinsh</t>
+          <t>krishnabhanda</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>sujeetra</t>
+          <t>shaikhmohammedimra</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>sajidhuss</t>
+          <t>vaishnavi</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ganeshni</t>
+          <t>hirsinghrajput</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>vijaycha</t>
+          <t>alihazrat</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ibuserja</t>
+          <t>snehalatasantoshma</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>girimina</t>
+          <t>abdulrahman</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>amarpald</t>
+          <t>shreeganesh</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>upip</t>
+          <t>mahendrajairajtamb</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>sonamsub</t>
+          <t>mrshaikhahmedraza</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ashishka</t>
+          <t>rimarajendrakumars</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>rblbank(razorpay)</t>
+          <t>pushparajenterprise</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>wellness</t>
+          <t>irshadmohammadmans</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>amitajit</t>
+          <t>ashokramashankarya</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>karunesh</t>
+          <t>rubiyaarubiyaa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>shrutina</t>
+          <t>maqsoodkhan</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>horizonst</t>
+          <t>hasmukhraiandcogh</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ramaswamy</t>
+          <t>myntra</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>mrkunal</t>
+          <t>hirjiravjipatel</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>johnsonr</t>
+          <t>shabinaanwarquresh</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>sadashiva</t>
+          <t>mrjabirali</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>abdulkari</t>
+          <t>hiteshsunilpatil</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>bindusar</t>
+          <t>lyx</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>amodnna</t>
+          <t>trpoljh</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>aaravsom</t>
+          <t>aminbhaidaudbhaikh</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>surajpra</t>
+          <t>atulamehrotra</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>robinbab</t>
+          <t>mohdgulamsabirkha</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>sirajmed</t>
+          <t>rajkumarm</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>janeajin</t>
+          <t>raisliyakatkhan</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>sulagnab</t>
+          <t>govind q</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>shindeni</t>
+          <t>shoaibabdulrashid</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>poonamra</t>
+          <t>mariasiluvaimnadar</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>priyaga</t>
+          <t>tusharmanojchugh</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>karuankar</t>
+          <t>anandcsachdev</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>amitthak</t>
+          <t>hksip</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>pankajdn</t>
+          <t>jalaluddinshah</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>pooja</t>
+          <t>mrpratikkumardine</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>jitinja</t>
+          <t>rashidmusttafa</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>yogibhim</t>
+          <t>bkdesignercollect</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>neethysreejit</t>
+          <t>faiyazqureshi</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>pradeepv</t>
+          <t>pramodgovindnair</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>mrumesh</t>
+          <t>yohananthonydsouza</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>reenadk</t>
+          <t>msvijanmedicalan</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>vivekgro</t>
+          <t>kundankumar</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>rajkumar</t>
+          <t>nmumbai</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>jalaluddi</t>
+          <t>mrskiranvinodkalw</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>credclub</t>
+          <t>cbjk</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>shilpas</t>
+          <t>deepsingh</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>rblbank</t>
+          <t>gurpreetsingh</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>jaibhara</t>
+          <t>priyashankar</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>siddheshw</t>
+          <t>ombk</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>shellys</t>
+          <t>jagmeetsinghmiddha</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>rohitshr</t>
+          <t>ashwinianantkondvi</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ayushshr</t>
+          <t>akhileshkumarbind</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>chiramel</t>
+          <t>armanhussain</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -2584,7 +2584,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>chamarthy</t>
+          <t>ziauddin</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2594,7 +2594,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>kshitijr</t>
+          <t>mohdtaufiq q</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2604,7 +2604,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>mrpramod</t>
+          <t>kishorkumar</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2614,7 +2614,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>anjurake</t>
+          <t>sagarsinghsojaima</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2624,10 +2624,4070 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>parminder</t>
+          <t>paulmahinder</t>
         </is>
       </c>
       <c r="B220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>mrramlalmourya</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>kamalpreetsingh</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>yohananthonyokicici</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>maansaab</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>surinderkumarsharm</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>anilkumar q</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>msswethambariranga</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>nisharavijoshi</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>missnikitayadav</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>mrganeshbharatrao</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>mohdrijwan</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>janaksilwal</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>kaushalyadevi</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>shyamsundersharma</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>roopsingh</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>mrnokhuram</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>alidevi</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>piyushpaul</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>xuqljvazasy</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>surinderpal</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>vickykumar</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>singhdevi</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>yewaleaytm</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>niyazullahshafatull</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>sanjaybalkrishnas</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>shivanandguptaso</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>mohdmushtaquemohdyaq</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>manojkumarnirmal</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>leenasunilwadhare</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>shreesiddhivinayak</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>msshreechamunda</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>tenzinpenthok</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>leeladevi</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>jaspreetsingh</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>madanlalaggarwal</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>sukhdevsingh</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>nmsnareshmultisto</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>kunwarbahadur</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>vinodkumarharinaray</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>sahilvijaygaikwad</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>sanskardnyaneshwar</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>sanskardnyaneshwarkicici</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>dhruvharishnambiar</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>sagarvazirani</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>vaneetkumar</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ronakgurudas bhabom</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>shubhamelectrichar</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>mrmdazam</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>selrk</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>vaidjaysukhharakha</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>azadlatifkhan</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>mattagurucharansin</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>jineetthakkar</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>vasantvitthalbanga</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>dhammickbhimrajshi</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>purnachandradas</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>jandgretails</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>ashapraveenbangera</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>mmuralikrishnan</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>sachinsanathandhav</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>sureshmahadumandav</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>poojanvig citin</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>durgabahadurmuktan</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>missreenadevi</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>swatibhatia</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>pranavsobhupender</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>sureshkumarsojodh</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>mspemayangchen</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>niranjbinesh</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>sagarkishorevazira</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>meghnathatwaripand</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>zahidtariqhussain</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>sudhanshudevidasra</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>shubhamsanjaydhuma</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>umangnareshjain</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>deepakdoulatrammans</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>jagadishsahebraopa</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>tabassumalimrehman</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>pradhanpanbhandar</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>maharashtrauniv</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>varunsrinivasdasar</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>aqibaltamashshaikh</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>mrnabilshakeelbad</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>ansariamanjavedah</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>mastermohammedumai</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>saeedanwarshaikh</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>bherulalkalulaljai</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>gulabchandyadav</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>mrjamshedkasimsay</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>osamaabdussalamkha</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>ranjankumarparit</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>moimran</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>sandeepshankardhul bharatpe</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>amaannaushadshaikh</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>xjufu</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>gulammustafasoabd</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>madhavchemistandl</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>mrrameshvilasyeda</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>maheshnarayannadar</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>maheshnarayanvh</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>rakeshkumar</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>mastermansoormainu</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>dineshkumarrajendr</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>sahilcsc</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>cafenooranimilkda</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>praveshlaxmanyadav</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>kharwest</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>yogeshkarwadkar</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>mohammedyusuf</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>shersinghsojabba</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>manojgmadnani</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>rajkumarpal</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>ajaylalmunigupta</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>siddhisaigeneralst</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>jayeshprbhakarmhat</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>rajashreejayprakash</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>rishikeshsatishpan</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>dmartindia</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>fyimo</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>atulmehrotra</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>gulfamansari</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>jitendrakumarchhat</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>sahilkishorevazira</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>shreesavariyaicec</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>harshwadhwa</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>mokareem karimkhan</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>aminahmadsunasara</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>mohdsaydahusain</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>mohdrizwantayubali</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>sohamsudarshanyelv</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>faisalalikhan</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>conradmosesferrao</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>praveenamarbahadur</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>sachinbhaiharibhai</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>rohitchandaramchou</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>rohitchandaram</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>vishnup</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>poojariraghavedrav</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>mab</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>vinodgiridharigup</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>monginisnoorenterp</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>govindchauhan q</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>shreekrishnabhavan</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>panarashobhanarasi</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>mohdshahnawaz q</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>navinkumarjha</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>avraghavan q</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>mrsurajramlakhan</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>rohinibandunaik</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>vidyavatisshetty</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>mohammednasiramir</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>aveshismailansari</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>janmar</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>abdulwahid</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>mohammadwasimkhan</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>sahiltm</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>mohanlalmotiramjos</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>pennydrop</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>mohdarifmohdanis</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>joeyspizzaandheri</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>ghanshyam</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>mastergauravdhanaj</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>shycafeandrestaur</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>hmhi</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>shalujjitendragup</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>mahavirchikki</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>kuntalprakashoksbi</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>rajeshmohantymohant</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>mrramachandranmasa</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>shahanchorkutchhi</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>giteshpatel q</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>pranjalprakashsaw</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>sionxx</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>yewaleamritulya</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>amritamanojkeswani</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>vishwanathvinayaks</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>shyamkumaryadav</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>niyamatkhan</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>salauddinansari</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>sirajkhan</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>wasiuzzamanabdultawa</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>mohdumair bharatpe</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>sanamaaz</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>mohdtahirmohdisha</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>salawddinmohdhusen</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>ummedsayyed</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>youare</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>laxmikantharendrad</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>omkarnathpal</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>laxmanlalteli</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>badredanishshamsud</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>mrzaidchandrikas</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>mohammadsohailkhan</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>jainulavadinmohdg</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>mohsinanwarhusainsha</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>chandmiyanshamshuddi</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>myntradesignspriva</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>gavahaneshivajigan</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>ibgamr</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>pawaskaryogeshchan</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>mdmastanaansari</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>kuntalprakashthaku</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>ubtef</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>sampathshettigar</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>chandrakantpatel</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>pradhumshambhunath</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>khanmohammedsiraj na</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>vijaybpawar</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>shashiprafulsachde</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>siddquiaaminafsar</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>ismailkhan</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>shaikhmehboobmakab</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>mehadisuhelkhan</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>mdomarfarukmandal</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>akilismailkhan</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>missnajmaparveen</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>vinodchandrakantja</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>manishpanipuri</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>mohammadrezaabbas</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>eadx</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>sudarshanpal</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>fatemahakimudaipurwa</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>irfanchotekhan</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>ozerismailansari</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>mohammadarifshamsu</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>dineshmohanlalchou</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>sameerarshadshaikh</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>lakyuw</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>shreemanjunathlunc</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>mohammadmehtabmoha</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>vishalgupta</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>raeesahmedshaikh</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>nabiahmedshaikh</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>sameerarshadsn</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>northernarccapital</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>shaikhfazlurehman</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>ismailkhan tajshawarma</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>ibrahimsuroorkhan</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>namdeogangarammore</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>namdeogangaramkicici</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>mrsajauddin bharatpe</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>amitkumartiwari khanola</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>shambhaviah</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>mrezazrafiqshaikh</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>aartisunilhinduja</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>ashalathakrishnah</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>manishravindrapati</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>manojgopaldasmadn</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>ramjanamgupta</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>wowmomochemburmum</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>ibkl</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>aadarshnareshkusum</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>adilejazshaikh</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>kamalnathyadvendra</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>sahidlatifansari</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>mayankjain</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>mohdnaushadayubha naushad</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>sabban</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>jiomart</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>jagdishvijaybahadu</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>uzaifansari</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>ashaomprakashmakde</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>rizwanahmedansari</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>msshreekiranasto</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>msrabkaasenterprise</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>akhilchalla</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>chimanmora</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>sujathasiledar</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>jjdreamzz</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>dhannajaybiswkarma</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>rahmaangeneralstor</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>bharatkparmar</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>parvezmohdachchan</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>shaikhashrafkamaru</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>kapilmaheshwariso</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>shahbazalishoukat</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>mdsultan</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>harshalgeneralstor</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>pai</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>dimplemahaveernaga</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>jaiswarrajendrapra</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>kundankamleshkumar</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>dayyanmoinuddinkha</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>inlakschemist</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>croma</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>bhanushaliaryannil</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>salunkevivekvinu</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>hiteshrameshbhoj</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>minakshinikhilrane</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>mdpravez</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>arbazsultankhan</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>shaikhabufaishalf</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>rishmunisingh</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>esbz</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>mrsmaimunissagulsh</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>laxminarasimhareal</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>ratn</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>ganeshmawamisthan</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>shahidilyasasamdi</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>gayasuddeen</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>gaikwadsachinashok</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>mewalaljamunaprasad</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>sawlila</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>prasadbabajimanche</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>mraiyazanwa</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>mohammedtauheedmoham</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>farmanashrafansari</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>mrssanaabdulrashi</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>juberkhan</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>dayanandnarayanpoo</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>laltaprasadrkeshar</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>amardevdinanathpra</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>sakshamenterprises</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>ppiw</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>vidyanavnatht</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>shahnawaz bharatpe</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>vikashkumar</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>ruwabalibasharata</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>sameershaikh</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>esloanlai</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>mohdalitahakalbe</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>sunilthokale</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>nileshbherulalrath</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>mahb</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>santoshjawahargupta</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>shahnawazmustaqahm</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>faiyaz</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>rahmanshaikh</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>kausarsajidahmeda</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>mrsujitbhaskarkad</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>sxobro</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>shabnamqureshi</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>nafisahamad</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>pravinyadav</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>shahnawazalamejaz</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>ayushigeneral</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>bigtreeentertainmen</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>pramodkaripumannil</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>swethambarirangaraj</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>kamaldyersandclea</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>anilrameshsharma</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>eshamohansinghmal</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>mohdatifshaikh</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>shamser</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>rutujasahebrao</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>raud</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>sudheersabhajeetpa</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>chetanmanoharkambl</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>aslamsalimkhan</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>syedjalaltawakkoli</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>bivx</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>ramsamujh q</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>olacabs</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>altabhusain</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>ucyiyyyn</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>mosikendar</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>mrranukhan aryankhan</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>maheshsilver</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>lazypayprivatelimi</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>mohammedamanansari</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>vasantsadajimali</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>riyadineshmaurya ubin</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>hennesnmauritz</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>mohdparvez</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>azharniyazkhan</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>fejanqureshicollec</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>nizamuddinjamaluddi</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>tahaazizmithaiwala</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>naginakhatoonshah</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>vishalkajare</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>keshavmohanlalgela</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>shaikhsaud</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>anandakhileshkumar bharatpe</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>aryanchandrakantan</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>bilalahmadmir</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>hostingerpteltd</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>mehboobpathan</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>kafilahmedaqueela</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>zakirullasalamatula</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>hanfy</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>puransinghnibsingh</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>manjuadaikalamfern</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>riyazmohdanwarqur</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>santoshtulsidashadka</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>akbarmungfalistall</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>shaileshmishra</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>whizdmfinancepriva</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>rohitrameshwahwal</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>vandanakes</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>vinodkumarsingh</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>seemadevi</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>neeraj</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>ramchandrapal</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>amarendrachaudhary</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>merwans</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>sameernizamilahi</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>anshulrosia</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>jitensahni</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>imran</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>ravikumarpatidars</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>mahendrasahablalgu</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>madhumitaajaydixit</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>tenzinthardo</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>tenzini</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>dickey</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>tseringpalmo</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
         <v>1</v>
       </c>
     </row>

--- a/src/utils/del/entity_df.xlsx
+++ b/src/utils/del/entity_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B626"/>
+  <dimension ref="A1:B523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,77 +448,77 @@
     <row r="2">
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
-        <v>1673</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>POOJAN MANISH VIG</t>
+          <t>qureshifaiyazanwar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>qureshifaiyazanwar</t>
+          <t>bagdadimilkcentre</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>deeppatange</t>
+          <t>riyazuddinallauddin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>aiyazanwarqureshi</t>
+          <t>snapmintcreditadvi</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>riyazuddinallauddin</t>
+          <t>mraiyazanwarqures</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>murarilalmahendrake</t>
+          <t>aiyazanwarqureshi</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>madnanirithikmanoj</t>
+          <t>poojanmanishvig</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -534,257 +534,257 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sanjeevvasudeochin</t>
+          <t>faiyazanwarqureshi</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sanchaysachinthaln</t>
+          <t>mohdahtesham</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>faiyazanwarqureshi</t>
+          <t>rizwanmajidkhan</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>nikatrohitjyotiram</t>
+          <t>haiderali</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>relianceretaillimi</t>
+          <t>ajinkyasureshkhobr</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mohdahtesham</t>
+          <t>shariquesajidshaik</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>rizwanmajidkhan</t>
+          <t>snapmintfinancials</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>haiderali</t>
+          <t>na</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ajinkyasureshkhobr</t>
+          <t>zoebalikhan</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>javedlatifkhan</t>
+          <t>madnanirithikmanoj</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>areydoodhandgener</t>
+          <t>googlepay</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>shariquesajidshaik</t>
+          <t>mauhammadfarukh</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>murarilalmahendras</t>
+          <t>hirastores</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>zoebalikhan</t>
+          <t>shaikhahmedrazara</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>xxxxxxxx</t>
+          <t>warangedryfruitst</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>jyotijitendrabindr</t>
+          <t>sanchaysachinthaln</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>nwd</t>
+          <t>mohammadshafiqkhan</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mauhammadfarukh</t>
+          <t>shivajatanakumargir</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>bharatpe</t>
+          <t>paytm</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>shaikhahmedrazara</t>
+          <t>mohammedmurtaza</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>pateljainishdinesh</t>
+          <t>lalmanlaundry</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>shivajatanakumargir</t>
+          <t>deeppatange</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>mohammedmurtaza</t>
+          <t>nasimuddin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>farhatabdulraufsh</t>
+          <t>ring</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>vickymurliadvani</t>
+          <t>bharatpemerchant</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mohammadrahbar</t>
+          <t>stucred</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -794,7 +794,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>siddhivinayakkirana</t>
+          <t>mohammadrahbar</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -804,17 +804,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>medcsi</t>
+          <t>relianceretaillimi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>naazneenabdulgaffa</t>
+          <t>shaikhmohdhashimy</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -824,7 +824,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>rahulkumarpandiya</t>
+          <t>riyazuddingenerals</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -834,7 +834,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>riyazuddingenerals</t>
+          <t>irfankhan</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -844,7 +844,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>irfankhan</t>
+          <t>naazneenabdulgaffa</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -854,37 +854,37 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>adityashyamjaiswal</t>
+          <t>harshkrishnadevdub</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mohammednasiransar</t>
+          <t>roopamgeneralstore</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>shaikhmohdhashimy</t>
+          <t>zaikarestaurant</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>parvinranabharvad</t>
+          <t>payupaymentspvtlt</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -894,7 +894,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sagarrajnathprajap</t>
+          <t>riyadineshmaurya</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -904,7 +904,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>yohananthonyoksbi</t>
+          <t>axis</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -914,27 +914,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>harshkrishnadevdub</t>
+          <t>mohammadmujaffarza</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>riyadineshmaurya</t>
+          <t>yohananthonydsouz</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>kavitadineshgowda</t>
+          <t>zaikaaytm</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -944,7 +944,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>giteshpatel</t>
+          <t>mohammedayaansulem</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -954,7 +954,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>sampathvamanshetti</t>
+          <t>kotiansatishkorag</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -964,7 +964,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>pasabhairanabhaibh</t>
+          <t>farzanaabdulrashid</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -974,7 +974,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>rajrakeshkumarsing</t>
+          <t>ansanirajnathpande</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -984,7 +984,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>zaikaaytm</t>
+          <t>irsad</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -994,7 +994,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>paidviac</t>
+          <t>aiyazqureshi</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1004,7 +1004,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>mohammadmujaffarza</t>
+          <t>xxxxxx</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1014,7 +1014,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>farzanaabdulrashid bharatpe</t>
+          <t>rzpxprivatelimitedn</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1024,97 +1024,97 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>nasimuddin</t>
+          <t>mubeenamohdanwarq</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ansanirajnathpande</t>
+          <t>tejramjiyalalrasto</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>bchemio</t>
+          <t>mohammadhanifansar</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>mohammadshafiqkhan q</t>
+          <t>abduljabbarabdulg</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>mohammadshafiqkhan</t>
+          <t>vigpoojanmanish</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>mohammedayaansulem</t>
+          <t>jamilahmedbarkata</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>yohananthonydsouz</t>
+          <t>bharatkparmar</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>rohitanandsalonan</t>
+          <t>fyerssecuritiespri</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>irsad</t>
+          <t>akramrehmatalisha</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>adityabirlafinance</t>
+          <t>noorjahanabdullaha</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1124,7 +1124,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>tejramjiyalalrasto</t>
+          <t>northernarccapital</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1134,7 +1134,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>santoshbhaglusahu</t>
+          <t>adityabirlafinance</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1144,107 +1144,107 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>jamilahmedbarkata</t>
+          <t>shadabansari</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>akramrehmatalisha</t>
+          <t>garagepreneursinter</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>mohammadhanifansar</t>
+          <t>abflpostpaidpayno</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>jayahareshrat</t>
+          <t>varietystores</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>mumbaifarsan</t>
+          <t>credclub</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>mubeenamohdanwarq</t>
+          <t>amazonpay</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>prakashpatil</t>
+          <t>rehanalamansari</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>nareshmangilalpand</t>
+          <t>quadrillionfinance</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>misssakshiankushd</t>
+          <t>sonarphoolchandnan</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>noorjahanabdullaha</t>
+          <t>mrsherineadaikalam</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>nisargsheth</t>
+          <t>truecreditsin</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1254,7 +1254,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>sonarphoolchandnan</t>
+          <t>sicrevacapitalser</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1264,7 +1264,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>tatapowerltd</t>
+          <t>studentcentre</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1274,7 +1274,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>foowmiek</t>
+          <t>haqqanichinesecorn</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1284,7 +1284,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>misspranjalprakash</t>
+          <t>kreditbee</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1294,7 +1294,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sanchaythalnerkar</t>
+          <t>yohananthonyoksbi</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1304,7 +1304,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>vazirani</t>
+          <t>newbombayautosupp</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1314,7 +1314,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>bharatpemerchant</t>
+          <t>paytmtraintickets</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1324,7 +1324,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>raeeshasaifi</t>
+          <t>addmoneytopytm</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1334,7 +1334,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>nasimuddin q</t>
+          <t>raeeshasaifi</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1344,7 +1344,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>shadabansari</t>
+          <t>slice</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1354,7 +1354,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>mrsherineadaikalam</t>
+          <t>aquapoint</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1364,87 +1364,87 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>manjunathkrishnagowd bharatpe</t>
+          <t>meetyogeshkacha</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ganeshvilasgaikwad</t>
+          <t>paytmuser</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>rehanalamansari</t>
+          <t>wwwfacebookcomger</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>atwarikartikpandit</t>
+          <t>mohammedsaeedmoham</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>nisargjineshsheth</t>
+          <t>mohdirfanamirahme</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>girdharlakhmichand</t>
+          <t>khanmohammedsiraj</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>vijaylaxmirestauran</t>
+          <t>bismillahstore</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>sicrevacapitalser</t>
+          <t>javedlatifkhan</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>javedsayyedyusufa</t>
+          <t>hirsinghrajput</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1454,7 +1454,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>nextbilliontechnolog</t>
+          <t>noordiagnosticcent</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1464,7 +1464,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>paytmqr</t>
+          <t>krazybee</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1474,7 +1474,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>nirmalaprakashpooj</t>
+          <t>pushpadevinagendra</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1484,7 +1484,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>mohammedsaeedmoham</t>
+          <t>yedekarmasala</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1494,7 +1494,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>bharatkparmar q</t>
+          <t>javedsayyedyusufa</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1504,7 +1504,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>imumbai</t>
+          <t>bitlightinfotech</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1514,7 +1514,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>khanmunzoor</t>
+          <t>manojkumarvinayak</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1524,7 +1524,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>manojkumarvinayak</t>
+          <t>truecreditspvtlt</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1544,7 +1544,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>thorgavankarneeraj</t>
+          <t>hpservicecenterch</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1554,7 +1554,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>riyazali</t>
+          <t>shabnamanwar</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1564,7 +1564,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>sahilramzandawdani</t>
+          <t>infinityplusbusinesscompany</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1574,7 +1574,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>setubrokentusk</t>
+          <t>mohammadhanifvg</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1584,7 +1584,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>wowmomochembur</t>
+          <t>impsp</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1594,7 +1594,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>kotiansatishkorag</t>
+          <t>touhidnajeerquresh</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1604,7 +1604,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>mohammadhanifvg</t>
+          <t>irfanilyaskhan</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1614,7 +1614,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>krishsanghvipranav</t>
+          <t>cashfreepaymentsin</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1624,7 +1624,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>aryanchandrakanta</t>
+          <t>jyotishivbhagwanso</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1634,7 +1634,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>irfanilyaskhan</t>
+          <t>kaababdulbasit</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1644,7 +1644,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>qihuffongyd</t>
+          <t>fazalafzalbhati</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1654,7 +1654,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>fazalafzalbhati</t>
+          <t>riyazali</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1664,107 +1664,107 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>mohdirfanamirahme</t>
+          <t>shaheenajafardamka</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>mrsswapnabomiaybo</t>
+          <t>mohdibrahimabdul</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>vinayprakashjain</t>
+          <t>surajkumar</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>touhidnajeerquresh</t>
+          <t>vimlashawlsprop</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>jrolil</t>
+          <t>laljibeedishop</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>kaababdulbasit</t>
+          <t>bablidevi</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>bitlightinfotech</t>
+          <t>faiyazqureshi</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>jyotishivbhagwanso</t>
+          <t>qualitycaterers</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>indrakumarsingh jiop</t>
+          <t>shaikhmohammedimra</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>nishiranjanshyamcha</t>
+          <t>bkdesignercollect</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ashishkumarjaswant</t>
+          <t>shoaibabdulrashid</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1774,7 +1774,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>iramriyazkhan</t>
+          <t>mariasiluvaimnadar</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1784,7 +1784,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ronakgurudasvarava</t>
+          <t>mrpratikkumardine</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1794,7 +1794,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>hastimalsolanki</t>
+          <t>ansarimohddanish</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1804,7 +1804,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>lziexmst</t>
+          <t>automobileresort</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1814,7 +1814,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>shaheenajafardamka</t>
+          <t>shreekrishnastores</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1824,7 +1824,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>mohdibrahimabdul q</t>
+          <t>khajamahuddinsyed</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1834,7 +1834,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>mohdm</t>
+          <t>thronestechnologies</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1844,7 +1844,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ansarimohddanish</t>
+          <t>snehalatasantoshma</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1854,7 +1854,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>dmart</t>
+          <t>khannoorullahrafat</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -1864,7 +1864,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>jio</t>
+          <t>digiotechsolutions</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1874,7 +1874,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>bablidevi</t>
+          <t>krazybeeservicespv</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1884,7 +1884,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>surajkumar</t>
+          <t>chalo</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1894,7 +1894,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>khanmohammedsiraj</t>
+          <t>shagirchotukhanpat</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1904,7 +1904,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ritikaravindraprak</t>
+          <t>ashishkumarjaswant</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1914,7 +1914,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>hussainmehmoodkhan</t>
+          <t>branch</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1924,7 +1924,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>tuniz</t>
+          <t>anwarabdulkhaliks</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1934,7 +1934,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>muhammedarshadaala</t>
+          <t>tajkingshawarma</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1944,7 +1944,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ahmadfarooqkaradiy</t>
+          <t>shadowfaxtechnologi</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1954,7 +1954,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>nwxvwtofenaz</t>
+          <t>iramriyazkhan</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1964,7 +1964,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>hitendravijaykumar</t>
+          <t>shilpasushantpande</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1974,7 +1974,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ubin</t>
+          <t>mshsdautocarecen</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1984,7 +1984,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>rthane</t>
+          <t>aminbhaidaudbhaikh</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1994,7 +1994,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>fahadshaikh</t>
+          <t>hussainmehmoodkhan</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2004,7 +2004,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>khajamahuddinsyed</t>
+          <t>nareshmangilalpand</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2014,7 +2014,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>moeedahmed</t>
+          <t>rashidmusttafa</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2024,7 +2024,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>anwarabdulkhaliks</t>
+          <t>branchinternational</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2034,7 +2034,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>krishnabhanda</t>
+          <t>rahmaangeneralstor</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2044,7 +2044,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>shaikhmohammedimra</t>
+          <t>moeedahmed</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2054,7 +2054,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>vaishnavi</t>
+          <t>babasnackscorner</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2064,7 +2064,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>hirsinghrajput</t>
+          <t>onecard</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2074,7 +2074,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>alihazrat</t>
+          <t>cafequbarestaurant</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2084,7 +2084,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>snehalatasantoshma</t>
+          <t>fahadsajidalishai</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2094,7 +2094,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>abdulrahman</t>
+          <t>accverification</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2104,7 +2104,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>shreeganesh</t>
+          <t>sureshdairy</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2114,7 +2114,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>mahendrajairajtamb</t>
+          <t>muhammedarshadaala</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2124,7 +2124,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>mrshaikhahmedraza</t>
+          <t>rev qureshi</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2134,7 +2134,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>rimarajendrakumars</t>
+          <t>razorpay</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2144,7 +2144,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>pushparajenterprise</t>
+          <t>shabinaanwarquresh</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2154,7 +2154,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>irshadmohammadmans</t>
+          <t>hitendravijaykumar</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2164,7 +2164,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ashokramashankarya</t>
+          <t>mohdgulamsabirkha</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2174,7 +2174,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>rubiyaarubiyaa</t>
+          <t>ahmadfarooqkaradiy</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2194,7 +2194,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>hasmukhraiandcogh</t>
+          <t>rubiyaarubiyaa</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2204,7 +2204,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>myntra</t>
+          <t>raisliyakatkhan</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2214,7 +2214,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>hirjiravjipatel</t>
+          <t>mayankjain</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2224,7 +2224,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>shabinaanwarquresh</t>
+          <t>campjuicecentre</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2234,7 +2234,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>mrjabirali</t>
+          <t>ismailkhan</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2244,7 +2244,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>hiteshsunilpatil</t>
+          <t>bycullaservicestat</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2254,7 +2254,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>lyx</t>
+          <t>shreeganesh</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2264,7 +2264,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>trpoljh</t>
+          <t>googleindiadigital</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2274,7 +2274,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>aminbhaidaudbhaikh</t>
+          <t>mahendrajairajtamb</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2284,7 +2284,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>atulamehrotra</t>
+          <t>mrshaikhahmedraza</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2294,7 +2294,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>mohdgulamsabirkha</t>
+          <t>highwayautomobiles</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2304,7 +2304,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>rajkumarm</t>
+          <t>taitanbakery</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2314,7 +2314,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>raisliyakatkhan</t>
+          <t>alihazrat</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2324,7 +2324,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>govind q</t>
+          <t>hasmukhraiandcogh</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2334,7 +2334,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>shoaibabdulrashid</t>
+          <t>irshadmohammadmans</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2344,7 +2344,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>mariasiluvaimnadar</t>
+          <t>mrjabirali</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2354,7 +2354,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>tusharmanojchugh</t>
+          <t>rapido</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2364,7 +2364,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>anandcsachdev</t>
+          <t>mohdm</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2374,7 +2374,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>hksip</t>
+          <t>friedchickencuisin</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2384,197 +2384,197 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>jalaluddinshah</t>
+          <t>mohdzubairishaqie</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>mrpratikkumardine</t>
+          <t>hajitikkacorner</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>rashidmusttafa</t>
+          <t>aqibaltamashshaikh</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>bkdesignercollect</t>
+          <t>mrnabilshakeelbad</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>faiyazqureshi</t>
+          <t>ansariamanjavedah</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>pramodgovindnair</t>
+          <t>mastermohammedumai</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>yohananthonydsouza</t>
+          <t>osamaabdussalamkha</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>msvijanmedicalan</t>
+          <t>ranjankumarparit</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>kundankumar</t>
+          <t>dickeypassang</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>nmumbai</t>
+          <t>tenzini</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>mrskiranvinodkalw</t>
+          <t>tenzinthardo</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>cbjk</t>
+          <t>lazypayprivatelimi</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>deepsingh</t>
+          <t>pranavsobhupender</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>gurpreetsingh</t>
+          <t>yohananthonydsouza</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>priyashankar</t>
+          <t>singhdevi</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ombk</t>
+          <t>shanepunjab</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>jagmeetsinghmiddha</t>
+          <t>vickykumar</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ashwinianantkondvi</t>
+          <t>surinderpal</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>akhileshkumarbind</t>
+          <t>neelkamalfillingst</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>armanhussain</t>
+          <t>shersinghsojabba</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -2584,7 +2584,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ziauddin</t>
+          <t>alfaxerox</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2594,7 +2594,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>mohdtaufiq q</t>
+          <t>mohammedyusuf</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2604,7 +2604,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>kishorkumar</t>
+          <t>riyazmohdanwarqur</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2614,7 +2614,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>sagarsinghsojaima</t>
+          <t>facebookindiaonlin</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2624,7 +2624,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>paulmahinder</t>
+          <t>shashiprafulsachde</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -2634,7 +2634,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>mrramlalmourya</t>
+          <t>vijaybpawar</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2644,7 +2644,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>kamalpreetsingh</t>
+          <t>telecom</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2654,7 +2654,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>yohananthonyokicici</t>
+          <t>addmoneytowallet</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -2664,7 +2664,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>maansaab</t>
+          <t>abdulrahman</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2674,7 +2674,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>surinderkumarsharm</t>
+          <t>tatacliq</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -2684,7 +2684,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>anilkumar q</t>
+          <t>fatemahakimudaipurwa</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2694,7 +2694,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>msswethambariranga</t>
+          <t>sudarshanpal</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2704,7 +2704,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>nisharavijoshi</t>
+          <t>salawddinmohdhusen</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -2714,7 +2714,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>missnikitayadav</t>
+          <t>naturalsbandra</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -2724,7 +2724,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>mrganeshbharatrao</t>
+          <t>thelamproom</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2734,7 +2734,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>mohdrijwan</t>
+          <t>mohdtahirmohdisha</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2744,7 +2744,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>janaksilwal</t>
+          <t>sanamaaz</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -2754,7 +2754,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>kaushalyadevi</t>
+          <t>mdomarfarukmandal</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -2764,7 +2764,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>shyamsundersharma</t>
+          <t>hostingerpteltd</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -2774,7 +2774,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>roopsingh</t>
+          <t>armanhussain</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -2784,7 +2784,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>mrnokhuram</t>
+          <t>badredanishshamsud</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -2794,7 +2794,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>alidevi</t>
+          <t>parnavonlinesoluti</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -2804,7 +2804,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>piyushpaul</t>
+          <t>laxmanlalteli</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -2814,7 +2814,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>xuqljvazasy</t>
+          <t>cbdt</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -2824,7 +2824,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>surinderpal</t>
+          <t>sameerarshadshaikh</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -2834,7 +2834,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>vickykumar</t>
+          <t>shreerampavbhaji</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -2844,7 +2844,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>singhdevi</t>
+          <t>dineshmohanlalchou</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -2854,7 +2854,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>yewaleaytm</t>
+          <t>mukhtarabdulsattar</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -2864,7 +2864,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>niyazullahshafatull</t>
+          <t>mohammadarifshamsu</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -2874,7 +2874,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>sanjaybalkrishnas</t>
+          <t>ozerismailansari</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -2884,7 +2884,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>shivanandguptaso</t>
+          <t>irfanchotekhan</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -2894,7 +2894,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>mohdmushtaquemohdyaq</t>
+          <t>mehadisuhelkhan</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2904,7 +2904,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>manojkumarnirmal</t>
+          <t>shaikhmehboobmakab</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2914,7 +2914,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>leenasunilwadhare</t>
+          <t>pmckp</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -2924,7 +2924,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>shreesiddhivinayak</t>
+          <t>siddquiaaminafsar</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2934,7 +2934,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>msshreechamunda</t>
+          <t>kiransuzuki</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -2944,7 +2944,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>tenzinpenthok</t>
+          <t>namdeogangaramkicici</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2954,7 +2954,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>leeladevi</t>
+          <t>namdeogangarammore</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -2964,7 +2964,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>jaspreetsingh</t>
+          <t>ibrahimsuroorkhan</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2974,7 +2974,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>madanlalaggarwal</t>
+          <t>theindianfilmcomb</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -2984,7 +2984,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>sukhdevsingh</t>
+          <t>croma</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -2994,7 +2994,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>nmsnareshmultisto</t>
+          <t>shaikhfazlurehman</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3004,7 +3004,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>kunwarbahadur</t>
+          <t>sahilcornerstore</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3014,7 +3014,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>vinodkumarharinaray</t>
+          <t>sameerarshadsn</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3024,7 +3024,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>sahilvijaygaikwad</t>
+          <t>chandmiyanshamshuddi</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3034,7 +3034,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>sanskardnyaneshwar</t>
+          <t>credpayeatsure</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3044,7 +3044,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>sanskardnyaneshwarkicici</t>
+          <t>tabrezalammubinqu</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3054,7 +3054,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>dhruvharishnambiar</t>
+          <t>mohsinanwarhusainsha</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3064,7 +3064,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>sagarvazirani</t>
+          <t>jainulavadinmohdg</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3074,7 +3074,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>vaneetkumar</t>
+          <t>mohammadsohailkhan</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3084,7 +3084,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ronakgurudas bhabom</t>
+          <t>mrzaidchandrikas</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3094,7 +3094,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>shubhamelectrichar</t>
+          <t>melangebox</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3104,7 +3104,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>mrmdazam</t>
+          <t>sirajkhan</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3114,7 +3114,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>selrk</t>
+          <t>mdarif</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3124,7 +3124,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>vaidjaysukhharakha</t>
+          <t>jagdishvijaybahadu</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3134,7 +3134,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>azadlatifkhan</t>
+          <t>jiomart</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3144,7 +3144,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>mattagurucharansin</t>
+          <t>sabban</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3154,7 +3154,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>jineetthakkar</t>
+          <t>momonish</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3164,7 +3164,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>vasantvitthalbanga</t>
+          <t>mohdnaushadayubha</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -3174,7 +3174,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>dhammickbhimrajshi</t>
+          <t>choudharyenterprise</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -3184,7 +3184,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>purnachandradas</t>
+          <t>sahidlatifansari</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -3194,7 +3194,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>jandgretails</t>
+          <t>kamalnathyadvendra</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -3204,7 +3204,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ashapraveenbangera</t>
+          <t>adilejazshaikh</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -3214,7 +3214,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>mmuralikrishnan</t>
+          <t>mrezazrafiqshaikh</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -3224,7 +3224,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>sachinsanathandhav</t>
+          <t>shambhaviah</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -3234,7 +3234,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>sureshmahadumandav</t>
+          <t>mrsajauddin</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3244,7 +3244,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>poojanvig citin</t>
+          <t>chalomobilitypriva</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -3254,7 +3254,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>durgabahadurmuktan</t>
+          <t>abdulrazakp</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -3264,7 +3264,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>missreenadevi</t>
+          <t>shreemahaveerchemi</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -3274,7 +3274,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>swatibhatia</t>
+          <t>mop</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -3284,7 +3284,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>pranavsobhupender</t>
+          <t>raeesahmedshaikh</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -3294,7 +3294,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>sureshkumarsojodh</t>
+          <t>vishalgupta</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -3304,7 +3304,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>mspemayangchen</t>
+          <t>ashaomprakashmakde</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -3314,7 +3314,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>niranjbinesh</t>
+          <t>uzaifansari</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -3324,7 +3324,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>sagarkishorevazira</t>
+          <t>abdulsalamranje</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -3334,7 +3334,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>meghnathatwaripand</t>
+          <t>upimerchant</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -3344,7 +3344,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>zahidtariqhussain</t>
+          <t>omkarnathpal</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -3354,7 +3354,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>sudhanshudevidasra</t>
+          <t>laxmikantharendrad</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -3364,7 +3364,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>shubhamsanjaydhuma</t>
+          <t>powerlook</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3374,7 +3374,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>umangnareshjain</t>
+          <t>amazonpayy</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -3384,7 +3384,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>deepakdoulatrammans</t>
+          <t>amazonpaygroceries</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -3394,7 +3394,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>jagadishsahebraopa</t>
+          <t>shabnamfatmaummeed</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -3404,7 +3404,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>tabassumalimrehman</t>
+          <t>mohdumair</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -3414,7 +3414,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>pradhanpanbhandar</t>
+          <t>wasiuzzamanabdultawa</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -3424,7 +3424,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>maharashtrauniv</t>
+          <t>mohdarifmohdanis</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -3434,7 +3434,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>varunsrinivasdasar</t>
+          <t>kapilmaheshwariso</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -3444,7 +3444,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>aqibaltamashshaikh</t>
+          <t>unitedmotorstores</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -3454,7 +3454,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>mrnabilshakeelbad</t>
+          <t>shaikhashrafkamaru</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -3464,7 +3464,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ansariamanjavedah</t>
+          <t>parvezmohdachchan</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -3474,7 +3474,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>mastermohammedumai</t>
+          <t>alaikalights</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -3484,7 +3484,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>saeedanwarshaikh</t>
+          <t>pansaresaylidattat</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -3494,7 +3494,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>bherulalkalulaljai</t>
+          <t>rzpxprivatelimitednodalaccount</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -3504,7 +3504,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>gulabchandyadav</t>
+          <t>niyamatkhan</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3514,7 +3514,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>mrjamshedkasimsay</t>
+          <t>shyamkumaryadav</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -3524,7 +3524,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>osamaabdussalamkha</t>
+          <t>moneyview</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -3534,7 +3534,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ranjankumarparit</t>
+          <t>upiret</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -3544,7 +3544,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>moimran</t>
+          <t>newjaswantelectric</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3554,7 +3554,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>sandeepshankardhul bharatpe</t>
+          <t>rihanali</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -3564,7 +3564,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>amaannaushadshaikh</t>
+          <t>nabiahmedshaikh</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -3574,7 +3574,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>xjufu</t>
+          <t>laljibidishop</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -3584,7 +3584,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>gulammustafasoabd</t>
+          <t>kavitadineshgowda</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -3594,7 +3594,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>madhavchemistandl</t>
+          <t>differentcollection</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -3604,7 +3604,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>mrrameshvilasyeda</t>
+          <t>rishmunisingh</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -3614,7 +3614,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>maheshnarayannadar</t>
+          <t>shaikhabufaishalf</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3624,7 +3624,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>maheshnarayanvh</t>
+          <t>arbazsultankhan</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -3634,7 +3634,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>rakeshkumar</t>
+          <t>moisrail</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -3644,7 +3644,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>mastermansoormainu</t>
+          <t>mdpravez</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -3654,7 +3654,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>dineshkumarrajendr</t>
+          <t>mdsultan</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -3664,7 +3664,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>sahilcsc</t>
+          <t>shahbazalishoukat</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3674,7 +3674,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>cafenooranimilkda</t>
+          <t>jafarmehdisarwarm</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3684,7 +3684,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>praveshlaxmanyadav</t>
+          <t>rakeshdmestry</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -3694,7 +3694,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>kharwest</t>
+          <t>instantpayindialim</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -3704,7 +3704,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>yogeshkarwadkar</t>
+          <t>setubrokentusktech</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -3714,7 +3714,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>mohammedyusuf</t>
+          <t>iqbal</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -3724,7 +3724,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>shersinghsojabba</t>
+          <t>tinkusah</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -3734,7 +3734,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>manojgmadnani</t>
+          <t>shaguftanasirqures</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -3744,7 +3744,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>rajkumarpal</t>
+          <t>h.rtraders</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -3754,7 +3754,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ajaylalmunigupta</t>
+          <t>mrsmaimunissagulsh</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3764,7 +3764,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>siddhisaigeneralst</t>
+          <t>dhannajaybiswkarma</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -3774,7 +3774,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>jayeshprbhakarmhat</t>
+          <t>jjdreamzzprivatel</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -3784,7 +3784,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>rajashreejayprakash</t>
+          <t>pay</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -3794,7 +3794,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>rishikeshsatishpan</t>
+          <t>msrabkaasenterprise</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -3804,7 +3804,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>dmartindia</t>
+          <t>msshreekiranasto</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -3814,7 +3814,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>fyimo</t>
+          <t>mohanlalmotiramjos</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -3824,7 +3824,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>atulmehrotra</t>
+          <t>sahiltm</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -3834,7 +3834,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>gulfamansari</t>
+          <t>mohammadwasimkhan</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -3844,7 +3844,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>jitendrakumarchhat</t>
+          <t>abdulwahid</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -3854,7 +3854,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>sahilkishorevazira</t>
+          <t>aveshismailansari</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -3864,7 +3864,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>shreesavariyaicec</t>
+          <t>mohammednasiramir</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -3874,7 +3874,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>harshwadhwa</t>
+          <t>yogeshkarwadkar</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -3884,7 +3884,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>mokareem karimkhan</t>
+          <t>praveshlaxmanyadav</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -3894,7 +3894,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>aminahmadsunasara</t>
+          <t>rizwanahmedansari</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -3904,7 +3904,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>mohdsaydahusain</t>
+          <t>rehanalamkhurshed</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -3914,7 +3914,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>mohdrizwantayubali</t>
+          <t>nizam</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -3924,7 +3924,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>sohamsudarshanyelv</t>
+          <t>sawlila</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -3934,7 +3934,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>faisalalikhan</t>
+          <t>mewalaljamunaprasad</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -3944,7 +3944,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>conradmosesferrao</t>
+          <t>spshahco</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -3954,7 +3954,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>praveenamarbahadur</t>
+          <t>safexpaytechnologie</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -3964,7 +3964,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>sachinbhaiharibhai</t>
+          <t>gaikwadsachinashok</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -3974,7 +3974,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>rohitchandaramchou</t>
+          <t>gayasuddeen</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -3984,7 +3984,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>rohitchandaram</t>
+          <t>psindiaservices</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -3994,7 +3994,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>vishnup</t>
+          <t>shahidilyasasamdi</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -4004,7 +4004,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>poojariraghavedrav</t>
+          <t>vouchpaytechnologie</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -4014,7 +4014,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>mab</t>
+          <t>ganeshmawamisthan</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -4024,7 +4024,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>vinodgiridharigup</t>
+          <t>softfixtechnologies</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -4034,7 +4034,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>monginisnoorenterp</t>
+          <t>zahidfaluda</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -4044,7 +4044,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>govindchauhan q</t>
+          <t>paysenseservicesin</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -4054,7 +4054,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>shreekrishnabhavan</t>
+          <t>laxminarasimhareal</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -4064,7 +4064,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>panarashobhanarasi</t>
+          <t>mohdshahnawaz</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -4074,7 +4074,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>mohdshahnawaz q</t>
+          <t>earlysalarypchfldi</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -4084,7 +4084,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>navinkumarjha</t>
+          <t>sameershaikh</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -4094,7 +4094,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>avraghavan q</t>
+          <t>ruwabalibasharata</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -4104,7 +4104,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>mrsurajramlakhan</t>
+          <t>vikashkumar</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -4114,7 +4114,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>rohinibandunaik</t>
+          <t>whizdmfinance</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -4124,7 +4124,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>vidyavatisshetty</t>
+          <t>shahnawaz</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -4134,7 +4134,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>mohammednasiramir</t>
+          <t>ajamatali</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -4144,7 +4144,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>aveshismailansari</t>
+          <t>vidyanavnatht</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -4154,7 +4154,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>janmar</t>
+          <t>mohdasim</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -4164,7 +4164,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>abdulwahid</t>
+          <t>mrssanaabdulrashi</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -4174,7 +4174,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>mohammadwasimkhan</t>
+          <t>farmanashrafansari</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -4184,7 +4184,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>sahiltm</t>
+          <t>icicimerchantservice</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -4194,7 +4194,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>mohanlalmotiramjos</t>
+          <t>mohammedtauheedmoham</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -4204,7 +4204,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>pennydrop</t>
+          <t>omegatraders</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4214,7 +4214,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>mohdarifmohdanis</t>
+          <t>prasadbabajimanche</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -4224,7 +4224,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>joeyspizzaandheri</t>
+          <t>credutility</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -4234,7 +4234,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ghanshyam</t>
+          <t>tapitstechnologies</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -4244,7 +4244,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>mastergauravdhanaj</t>
+          <t>shahnawazmustaqahm</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -4254,7 +4254,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>shycafeandrestaur</t>
+          <t>subhanahmedansari</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -4264,7 +4264,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>hmhi</t>
+          <t>santoshjawahargupta</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -4274,7 +4274,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>shalujjitendragup</t>
+          <t>nileshbherulalrath</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -4284,7 +4284,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>mahavirchikki</t>
+          <t>sunilshankarthokal</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -4294,7 +4294,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>kuntalprakashoksbi</t>
+          <t>mohdalitahakalbe</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -4304,7 +4304,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>rajeshmohantymohant</t>
+          <t>bahriautoservice</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -4314,7 +4314,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>mrramachandranmasa</t>
+          <t>vishalvishwasshind</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -4324,7 +4324,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>shahanchorkutchhi</t>
+          <t>cafenooranimilkda</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -4334,7 +4334,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>giteshpatel q</t>
+          <t>sahilcsc</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -4344,7 +4344,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>pranjalprakashsaw</t>
+          <t>shoaibmohdumerqur</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -4354,7 +4354,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>sionxx</t>
+          <t>avraghavan</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -4364,7 +4364,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>yewaleamritulya</t>
+          <t>kiniscauseway</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -4374,7 +4374,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>amritamanojkeswani</t>
+          <t>navinkumarjha</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -4384,7 +4384,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>vishwanathvinayaks</t>
+          <t>sachinbhaiharibhai</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -4394,7 +4394,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>shyamkumaryadav</t>
+          <t>praveenamarbahadur</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -4404,7 +4404,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>niyamatkhan</t>
+          <t>nafisahamad</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -4414,7 +4414,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>salauddinansari</t>
+          <t>shabnamanwarquresh</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -4424,7 +4424,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>sirajkhan</t>
+          <t>tulsigangamedical</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -4434,7 +4434,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>wasiuzzamanabdultawa</t>
+          <t>diwanmedicalstores</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -4444,7 +4444,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>mohdumair bharatpe</t>
+          <t>rakeshpalsoramswaroo</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -4454,7 +4454,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>sanamaaz</t>
+          <t>krishnadairy</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -4464,7 +4464,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>mohdtahirmohdisha</t>
+          <t>gpaybillpay</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -4474,7 +4474,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>salawddinmohdhusen</t>
+          <t>omegastationeryand</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -4484,7 +4484,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ummedsayyed</t>
+          <t>mrsujitbhaskarkad</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -4494,7 +4494,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>youare</t>
+          <t>chemburxerox</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -4504,7 +4504,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>laxmikantharendrad</t>
+          <t>sandeeppandey</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -4514,7 +4514,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>omkarnathpal</t>
+          <t>sherlymedicalandg</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -4524,7 +4524,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>laxmanlalteli</t>
+          <t>sajidqureshi</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -4534,7 +4534,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>badredanishshamsud</t>
+          <t>kausarsajidahmeda</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -4544,7 +4544,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>mrzaidchandrikas</t>
+          <t>market</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -4554,7 +4554,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>mohammadsohailkhan</t>
+          <t>rizwanzardi</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -4564,7 +4564,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>jainulavadinmohdg</t>
+          <t>ayushigeneral</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -4574,7 +4574,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>mohsinanwarhusainsha</t>
+          <t>shahnawazalamejaz</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -4584,7 +4584,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>chandmiyanshamshuddi</t>
+          <t>qureshiaiyaz</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -4594,7 +4594,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>myntradesignspriva</t>
+          <t>abdullatifsiddiki</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -4604,7 +4604,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>gavahaneshivajigan</t>
+          <t>pravinyadav</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -4614,7 +4614,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ibgamr</t>
+          <t>zerodhabrokingltd</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -4624,7 +4624,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>pawaskaryogeshchan</t>
+          <t>razorpaysoftwarepv</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -4634,7 +4634,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>mdmastanaansari</t>
+          <t>panarashobhanarasi</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -4644,7 +4644,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>kuntalprakashthaku</t>
+          <t>jyotipal</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -4654,7 +4654,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ubtef</t>
+          <t>shreekrishnabhavan</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -4664,7 +4664,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>sampathshettigar</t>
+          <t>govindchauhan</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -4674,7 +4674,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>chandrakantpatel</t>
+          <t>monginisnoorenterp</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -4684,7 +4684,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>pradhumshambhunath</t>
+          <t>vinodgiridharigup</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -4694,7 +4694,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>khanmohammedsiraj na</t>
+          <t>dineshkumarrajendr</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -4704,7 +4704,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>vijaybpawar</t>
+          <t>aminahmadsunasara</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -4714,7 +4714,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>shashiprafulsachde</t>
+          <t>mokareem</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -4724,7 +4724,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>siddquiaaminafsar</t>
+          <t>riyajahamadrahamat</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -4734,7 +4734,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ismailkhan</t>
+          <t>shettyautoservices</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -4744,7 +4744,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>shaikhmehboobmakab</t>
+          <t>amaannaushadshaikh</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -4754,7 +4754,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>mehadisuhelkhan</t>
+          <t>sandeepshankardhul</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -4764,7 +4764,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>mdomarfarukmandal</t>
+          <t>moimran</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -4774,7 +4774,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>akilismailkhan</t>
+          <t>ramsamujh</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -4784,7 +4784,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>missnajmaparveen</t>
+          <t>mumbaichinese</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -4794,7 +4794,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>vinodchandrakantja</t>
+          <t>blinkit</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -4804,7 +4804,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>manishpanipuri</t>
+          <t>shivisweetsandsna</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -4814,7 +4814,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>mohammadrezaabbas</t>
+          <t>syedjalaltawakkoli</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -4824,7 +4824,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>eadx</t>
+          <t>aslamsalimkhan</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -4834,7 +4834,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>sudarshanpal</t>
+          <t>chetanmanoharkambl</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -4844,7 +4844,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>fatemahakimudaipurwa</t>
+          <t>pupcakefactory</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -4854,7 +4854,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>irfanchotekhan</t>
+          <t>sudheersabhajeetpa</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -4864,7 +4864,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ozerismailansari</t>
+          <t>atulkarshandasrajg</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -4874,7 +4874,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>mohammadarifshamsu</t>
+          <t>nasir</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -4884,7 +4884,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>dineshmohanlalchou</t>
+          <t>mrranukhan</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -4894,7 +4894,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>sameerarshadshaikh</t>
+          <t>mosikendar</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -4904,7 +4904,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>lakyuw</t>
+          <t>abdulrehmankalumiy</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -4914,7 +4914,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>shreemanjunathlunc</t>
+          <t>srkrefreshmentllp</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -4924,7 +4924,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>mohammadmehtabmoha</t>
+          <t>transunioncibillim</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -4934,7 +4934,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>vishalgupta</t>
+          <t>orangemedical</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -4944,7 +4944,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>raeesahmedshaikh</t>
+          <t>altabhusain</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -4954,7 +4954,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>nabiahmedshaikh</t>
+          <t>paanworldcafe</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -4964,7 +4964,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>sameerarshadsn</t>
+          <t>conradmosesferrao</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -4974,7 +4974,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>northernarccapital</t>
+          <t>faisalalikhan</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -4984,7 +4984,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>shaikhfazlurehman</t>
+          <t>candiespalihill</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -4994,7 +4994,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>ismailkhan tajshawarma</t>
+          <t>sohamsudarshanyelv</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -5004,7 +5004,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ibrahimsuroorkhan</t>
+          <t>mohdrizwantayubali</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -5014,7 +5014,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>namdeogangarammore</t>
+          <t>mohdsaydahusain</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -5024,7 +5024,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>namdeogangaramkicici</t>
+          <t>naginakhatoonshah</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -5034,7 +5034,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>mrsajauddin bharatpe</t>
+          <t>tahaazizmithaiwala</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -5044,7 +5044,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>amitkumartiwari khanola</t>
+          <t>nizamuddinjamaluddi</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -5054,7 +5054,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>shambhaviah</t>
+          <t>fejanqureshicollec</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -5064,7 +5064,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>mrezazrafiqshaikh</t>
+          <t>azharniyazkhan</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -5074,7 +5074,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>aartisunilhinduja</t>
+          <t>mohdparvez</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -5084,7 +5084,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ashalathakrishnah</t>
+          <t>hennesnmauritz</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -5094,7 +5094,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>manishravindrapati</t>
+          <t>cwphoenixmarketci</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -5104,7 +5104,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>manojgopaldasmadn</t>
+          <t>bilalameensunasara</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -5114,7 +5114,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ramjanamgupta</t>
+          <t>armanalishaikh</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -5124,7 +5124,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>wowmomochemburmum</t>
+          <t>gauravrathore</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -5134,7 +5134,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ibkl</t>
+          <t>vasantsadajimali</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -5144,7 +5144,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>aadarshnareshkusum</t>
+          <t>mohammedamanansari</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -5154,7 +5154,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>adilejazshaikh</t>
+          <t>lazypay</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -5164,7 +5164,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>kamalnathyadvendra</t>
+          <t>mbkziprepayment</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -5174,7 +5174,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>sahidlatifansari</t>
+          <t>maheshsilver</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -5184,7 +5184,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>mayankjain</t>
+          <t>hallmarkmotorlinks</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -5194,7 +5194,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>mohdnaushadayubha naushad</t>
+          <t>mobikwikmerchant</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -5204,7 +5204,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>sabban</t>
+          <t>manjuadaikalamfern</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -5214,7 +5214,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>jiomart</t>
+          <t>puransinghnibsingh</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -5224,7 +5224,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>jagdishvijaybahadu</t>
+          <t>wwwfacebookcomads</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -5234,7 +5234,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>uzaifansari</t>
+          <t>piyushpalsosurind</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -5244,7 +5244,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ashaomprakashmakde</t>
+          <t>alidevi</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -5254,7 +5254,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>rizwanahmedansari</t>
+          <t>mrnokhuram</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -5264,7 +5264,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>msshreekiranasto</t>
+          <t>chiragdhaba</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -5274,7 +5274,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>msrabkaasenterprise</t>
+          <t>shyamsundersharma</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -5284,7 +5284,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>akhilchalla</t>
+          <t>kaushalyadevi</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -5294,7 +5294,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>chimanmora</t>
+          <t>janaksilwal</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -5304,7 +5304,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>sujathasiledar</t>
+          <t>mohdrijwan</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -5314,7 +5314,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>jjdreamzz</t>
+          <t>shaikhsaud</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -5324,7 +5324,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>dhannajaybiswkarma</t>
+          <t>keshavmohanlalgela</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -5334,7 +5334,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>rahmaangeneralstor</t>
+          <t>vishalkajare</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -5344,7 +5344,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>bharatkparmar</t>
+          <t>mehboobpathan</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -5354,7 +5354,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>parvezmohdachchan</t>
+          <t>euronetgpay</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -5364,7 +5364,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>shaikhashrafkamaru</t>
+          <t>sameernizamilahi</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -5374,7 +5374,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>kapilmaheshwariso</t>
+          <t>whizdmfinancepriva</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -5384,7 +5384,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>shahbazalishoukat</t>
+          <t>shaileshmishra</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -5394,7 +5394,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>mdsultan</t>
+          <t>nandustationeryand</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -5404,7 +5404,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>harshalgeneralstor</t>
+          <t>transactreetechnolo</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -5414,7 +5414,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>pai</t>
+          <t>akbarmungfalistall</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -5424,7 +5424,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>dimplemahaveernaga</t>
+          <t>kavalrytechnologies</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -5434,7 +5434,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>jaiswarrajendrapra</t>
+          <t>santoshtulsidashadka</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -5444,7 +5444,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>kundankamleshkumar</t>
+          <t>hindutancorporation</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -5454,7 +5454,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>dayyanmoinuddinkha</t>
+          <t>setu</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -5464,7 +5464,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>inlakschemist</t>
+          <t>anilkumar</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -5474,7 +5474,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>croma</t>
+          <t>suvidhadepartmental</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -5484,7 +5484,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>bhanushaliaryannil</t>
+          <t>bilalahmadmir</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -5494,7 +5494,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>salunkevivekvinu</t>
+          <t>tseringpalmo</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -5504,7 +5504,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>hiteshrameshbhoj</t>
+          <t>ziauddin</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -5514,7 +5514,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>minakshinikhilrane</t>
+          <t>mohdtaufiq</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -5524,7 +5524,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>mdpravez</t>
+          <t>aslamchickencorner</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -5534,7 +5534,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>arbazsultankhan</t>
+          <t>kishorkumar</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -5544,7 +5544,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>shaikhabufaishalf</t>
+          <t>gurpreetsingh</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -5554,7 +5554,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>rishmunisingh</t>
+          <t>sagarsinghsojaima</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -5564,7 +5564,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>esbz</t>
+          <t>mohinderpalsohave</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -5574,7 +5574,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>mrsmaimunissagulsh</t>
+          <t>mrramlalmourya</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -5584,7 +5584,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>laxminarasimhareal</t>
+          <t>kamalpreetsingh</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -5594,7 +5594,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ratn</t>
+          <t>yohananthonyokicici</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -5604,7 +5604,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ganeshmawamisthan</t>
+          <t>phulkariworld</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -5614,7 +5614,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>shahidilyasasamdi</t>
+          <t>surinderkumarsharm</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -5624,7 +5624,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>gayasuddeen</t>
+          <t>newmaamedicalstor</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -5634,7 +5634,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>gaikwadsachinashok</t>
+          <t>zakirullasalamatula</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -5644,7 +5644,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>mewalaljamunaprasad</t>
+          <t>fincfriendsprivate</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -5654,1040 +5654,10 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>sawlila</t>
+          <t>kafilahmedaqueela</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>prasadbabajimanche</t>
-        </is>
-      </c>
-      <c r="B524" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>mraiyazanwa</t>
-        </is>
-      </c>
-      <c r="B525" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>mohammedtauheedmoham</t>
-        </is>
-      </c>
-      <c r="B526" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>farmanashrafansari</t>
-        </is>
-      </c>
-      <c r="B527" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>mrssanaabdulrashi</t>
-        </is>
-      </c>
-      <c r="B528" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>juberkhan</t>
-        </is>
-      </c>
-      <c r="B529" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>dayanandnarayanpoo</t>
-        </is>
-      </c>
-      <c r="B530" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>laltaprasadrkeshar</t>
-        </is>
-      </c>
-      <c r="B531" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>amardevdinanathpra</t>
-        </is>
-      </c>
-      <c r="B532" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>sakshamenterprises</t>
-        </is>
-      </c>
-      <c r="B533" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>ppiw</t>
-        </is>
-      </c>
-      <c r="B534" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>vidyanavnatht</t>
-        </is>
-      </c>
-      <c r="B535" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>shahnawaz bharatpe</t>
-        </is>
-      </c>
-      <c r="B536" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>vikashkumar</t>
-        </is>
-      </c>
-      <c r="B537" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>ruwabalibasharata</t>
-        </is>
-      </c>
-      <c r="B538" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>sameershaikh</t>
-        </is>
-      </c>
-      <c r="B539" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>esloanlai</t>
-        </is>
-      </c>
-      <c r="B540" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>mohdalitahakalbe</t>
-        </is>
-      </c>
-      <c r="B541" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>sunilthokale</t>
-        </is>
-      </c>
-      <c r="B542" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>nileshbherulalrath</t>
-        </is>
-      </c>
-      <c r="B543" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>mahb</t>
-        </is>
-      </c>
-      <c r="B544" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>santoshjawahargupta</t>
-        </is>
-      </c>
-      <c r="B545" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>shahnawazmustaqahm</t>
-        </is>
-      </c>
-      <c r="B546" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>faiyaz</t>
-        </is>
-      </c>
-      <c r="B547" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>rahmanshaikh</t>
-        </is>
-      </c>
-      <c r="B548" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>kausarsajidahmeda</t>
-        </is>
-      </c>
-      <c r="B549" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>mrsujitbhaskarkad</t>
-        </is>
-      </c>
-      <c r="B550" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>sxobro</t>
-        </is>
-      </c>
-      <c r="B551" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>shabnamqureshi</t>
-        </is>
-      </c>
-      <c r="B552" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>nafisahamad</t>
-        </is>
-      </c>
-      <c r="B553" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>pravinyadav</t>
-        </is>
-      </c>
-      <c r="B554" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>shahnawazalamejaz</t>
-        </is>
-      </c>
-      <c r="B555" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>ayushigeneral</t>
-        </is>
-      </c>
-      <c r="B556" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>bigtreeentertainmen</t>
-        </is>
-      </c>
-      <c r="B557" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>pramodkaripumannil</t>
-        </is>
-      </c>
-      <c r="B558" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>swethambarirangaraj</t>
-        </is>
-      </c>
-      <c r="B559" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>kamaldyersandclea</t>
-        </is>
-      </c>
-      <c r="B560" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>anilrameshsharma</t>
-        </is>
-      </c>
-      <c r="B561" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>eshamohansinghmal</t>
-        </is>
-      </c>
-      <c r="B562" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>mohdatifshaikh</t>
-        </is>
-      </c>
-      <c r="B563" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>shamser</t>
-        </is>
-      </c>
-      <c r="B564" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>rutujasahebrao</t>
-        </is>
-      </c>
-      <c r="B565" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>raud</t>
-        </is>
-      </c>
-      <c r="B566" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>sudheersabhajeetpa</t>
-        </is>
-      </c>
-      <c r="B567" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>chetanmanoharkambl</t>
-        </is>
-      </c>
-      <c r="B568" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>aslamsalimkhan</t>
-        </is>
-      </c>
-      <c r="B569" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>syedjalaltawakkoli</t>
-        </is>
-      </c>
-      <c r="B570" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>bivx</t>
-        </is>
-      </c>
-      <c r="B571" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>ramsamujh q</t>
-        </is>
-      </c>
-      <c r="B572" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>olacabs</t>
-        </is>
-      </c>
-      <c r="B573" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>altabhusain</t>
-        </is>
-      </c>
-      <c r="B574" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>ucyiyyyn</t>
-        </is>
-      </c>
-      <c r="B575" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>mosikendar</t>
-        </is>
-      </c>
-      <c r="B576" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>mrranukhan aryankhan</t>
-        </is>
-      </c>
-      <c r="B577" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>maheshsilver</t>
-        </is>
-      </c>
-      <c r="B578" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>lazypayprivatelimi</t>
-        </is>
-      </c>
-      <c r="B579" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>mohammedamanansari</t>
-        </is>
-      </c>
-      <c r="B580" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>vasantsadajimali</t>
-        </is>
-      </c>
-      <c r="B581" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>riyadineshmaurya ubin</t>
-        </is>
-      </c>
-      <c r="B582" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>hennesnmauritz</t>
-        </is>
-      </c>
-      <c r="B583" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>mohdparvez</t>
-        </is>
-      </c>
-      <c r="B584" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>azharniyazkhan</t>
-        </is>
-      </c>
-      <c r="B585" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>fejanqureshicollec</t>
-        </is>
-      </c>
-      <c r="B586" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>nizamuddinjamaluddi</t>
-        </is>
-      </c>
-      <c r="B587" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>tahaazizmithaiwala</t>
-        </is>
-      </c>
-      <c r="B588" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>naginakhatoonshah</t>
-        </is>
-      </c>
-      <c r="B589" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>vishalkajare</t>
-        </is>
-      </c>
-      <c r="B590" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>keshavmohanlalgela</t>
-        </is>
-      </c>
-      <c r="B591" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>shaikhsaud</t>
-        </is>
-      </c>
-      <c r="B592" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>anandakhileshkumar bharatpe</t>
-        </is>
-      </c>
-      <c r="B593" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>aryanchandrakantan</t>
-        </is>
-      </c>
-      <c r="B594" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>bilalahmadmir</t>
-        </is>
-      </c>
-      <c r="B595" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>hostingerpteltd</t>
-        </is>
-      </c>
-      <c r="B596" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>mehboobpathan</t>
-        </is>
-      </c>
-      <c r="B597" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>kafilahmedaqueela</t>
-        </is>
-      </c>
-      <c r="B598" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>zakirullasalamatula</t>
-        </is>
-      </c>
-      <c r="B599" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>hanfy</t>
-        </is>
-      </c>
-      <c r="B600" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>puransinghnibsingh</t>
-        </is>
-      </c>
-      <c r="B601" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>manjuadaikalamfern</t>
-        </is>
-      </c>
-      <c r="B602" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>riyazmohdanwarqur</t>
-        </is>
-      </c>
-      <c r="B603" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>santoshtulsidashadka</t>
-        </is>
-      </c>
-      <c r="B604" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>akbarmungfalistall</t>
-        </is>
-      </c>
-      <c r="B605" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>shaileshmishra</t>
-        </is>
-      </c>
-      <c r="B606" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>whizdmfinancepriva</t>
-        </is>
-      </c>
-      <c r="B607" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>rohitrameshwahwal</t>
-        </is>
-      </c>
-      <c r="B608" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>vandanakes</t>
-        </is>
-      </c>
-      <c r="B609" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>vinodkumarsingh</t>
-        </is>
-      </c>
-      <c r="B610" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>seemadevi</t>
-        </is>
-      </c>
-      <c r="B611" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>neeraj</t>
-        </is>
-      </c>
-      <c r="B612" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>ramchandrapal</t>
-        </is>
-      </c>
-      <c r="B613" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>amarendrachaudhary</t>
-        </is>
-      </c>
-      <c r="B614" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>merwans</t>
-        </is>
-      </c>
-      <c r="B615" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>sameernizamilahi</t>
-        </is>
-      </c>
-      <c r="B616" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>anshulrosia</t>
-        </is>
-      </c>
-      <c r="B617" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>jitensahni</t>
-        </is>
-      </c>
-      <c r="B618" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>imran</t>
-        </is>
-      </c>
-      <c r="B619" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>ravikumarpatidars</t>
-        </is>
-      </c>
-      <c r="B620" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>mahendrasahablalgu</t>
-        </is>
-      </c>
-      <c r="B621" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>madhumitaajaydixit</t>
-        </is>
-      </c>
-      <c r="B622" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>tenzinthardo</t>
-        </is>
-      </c>
-      <c r="B623" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>tenzini</t>
-        </is>
-      </c>
-      <c r="B624" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>dickey</t>
-        </is>
-      </c>
-      <c r="B625" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>tseringpalmo</t>
-        </is>
-      </c>
-      <c r="B626" t="n">
         <v>1</v>
       </c>
     </row>

--- a/src/utils/del/entity_df.xlsx
+++ b/src/utils/del/entity_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B885"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,59 +446,8839 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>sbin</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>vigpritimanish</t>
+        </is>
+      </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>icic</t>
+          <t>qureshifaiyazanwar</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>loanrecoveryfor</t>
+          <t>aiyazanwarqureshi</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>loanrecoveryformle</t>
+          <t>bagdadimilkcentre</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bcbm</t>
+          <t>murarilalmahendrake</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>deeppatange</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>riyazuddinallauddin</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>snapmintcreditadvi</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>mraiyazanwarqures</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>poojanmanishvig</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>madnanirithikmanoj</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>jiyauddin</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sanchaysachinthaln</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sanjeevvasudeochin</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>vigpoojanmanish</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>faiyazanwarqureshi</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>vigbhoomimanish</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>relianceretaillimi</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nikatrohitjyotiram</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>mohdahtesham</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>rizwanmajidkhan</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>haiderali</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>credclub</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ajinkyasureshkhobr</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>javedlatifkhan</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>areydoodhandgener</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>mrganeshantevar</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>shariquesajidshaik</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>axis</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>sakecprintroom</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>bhoomimanishvig</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>snapmintfinancials</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>murarilalmahendras</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>zoebalikhan</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>meetyogeshkacha</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>hemantautomobile</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>mauhammadfarukh</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>paytm</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>mumbaimetroqrtick</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>googlepay</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>jyotijitendrabindr</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>mohammadshafiqkhan</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>hirastores</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>shaikhahmedrazara</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>pateljainishdinesh</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>mohammedmurtaza</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>shiprasharma</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>farhatabdulraufsh</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>lalmanlaundry</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>warangedryfruitst</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>shivajatanakumargir</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>hpservicecenterch</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>bharatpemerchant</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>vickymurliadvani</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>nasimuddin</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>stucred</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ring</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>mohammadrahbar</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>siddhivinayakkirana</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>zaikarestaurant</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>xxxxxx</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>mohammednasiransar</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>adityashyamjaiswal</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>nisargjineshsheth</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>riyazuddingenerals</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>yohananthonyoksbi</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>automobileresort</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>shaikhmohdhashimy</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>irfankhan</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>mumbai</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>parvinranabharvad</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>riyadineshmaurya</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>rahulkumarpandiya</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>naazneenabdulgaffa</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>harshkrishnadevdub</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>roopamgeneralstore</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>shivisweetsandsna</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>giteshpatel</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>desirecafeandsnac</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>stationery</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>payupaymentspvtlt</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>sagarrajnathprajap</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>yohananthonydsouz</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>pasabhairanabhaibh</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>irsad</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>safalchemist</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>kavitadineshgowda</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>farzanaabdulrashid</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ansanirajnathpande</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>rzpxprivatelimitedn</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>zaikaaytm</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>mohammadmujaffarza</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>kotiansatishkorag</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>amazonpay</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>mohammedayaansulem</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>addmoneytopytm</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>rajrakeshkumarsing</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>rohitrameshdfcbank</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>rohitanandsalonan</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>sampathvamanshetti</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>paanworldcafe</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>mubeenamohdanwarq</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>santoshbhaglusahu</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>gemart</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>fyerssecuritiespri</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>sanchaythalnerkar</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>adityabirlafinance</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>nareshmangilalpand</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>tejramjiyalalrasto</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>prakashpatil</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>jayahareshrat</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>akramrehmatalisha</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>bharatkparmar</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>mumbaifarsan</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>jamilahmedbarkata</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>noorjahanabdullaha</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>northernarccapital</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>misssakshiankushd</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>aiyazqureshi</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>mohammadhanifansar</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>paytmtraintickets</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>vijaylaxmirestauran</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>vaziranisahilkisho</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>kreditbee</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>vasantvitthalbanga</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>slice</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>manjunathkrishnagowd</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>rehanalamansari</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>jyotigeneralstores</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>sicrevacapitalser</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>amritamanojfcbank</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>garagepreneursinter</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>abduljabbarabdulg</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>haqqanichinesecorn</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>sonarphoolchandnan</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ganeshvilasgaikwad</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>dubeypaneershop</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>yulubikespvtltd</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>truecreditsin</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>misspranjalprakash</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>paytmuser</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>mrsherineadaikalam</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>newbombayautosupp</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>shadabansari</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>onecard</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>studentcentre</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>raeeshasaifi</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>sureshdairy</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>bahriautoservice</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>girdharlakhmichand</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>abflpostpaidpayno</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>varietystores</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>quadrillionfinance</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>aquapoint</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>vigrefreshments</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>sonaliarora</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>khalsasupermarket</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>tajkingshawarma</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>wwwfacebookcomger</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ssenterprise</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>mohammedsaeedmoham</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>khanmunzoor</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>cafequbarestaurant</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>manojkumarvinayak</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>yedekarmasala</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>jyotishivbhagwanso</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>gopichandgupta</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>cashfreepaymentsin</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>vigautomobiles</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>mrsswapnabomiaybo</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>nirmalaprakashpooj</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>javedsayyedyusufa</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>kaababdulbasit</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>fazalafzalbhati</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>nishiranjanshyamcha</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>aryanchandrakanta</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>thorgavankarneeraj</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>atulamehrotra</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>krishsanghvipranav</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>aiyazanwarqureshibom</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>bitlightinfotech</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>nextbilliontechnolog</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>himalimukeshparad</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>infinityplusbusinesscompany</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>wowmomochembur</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>vinayprakashjain</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>sampathvamanng</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>setubrokentusktech</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>groww</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>upiret</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>sahilramzandawdani</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>mohammadhanifvg</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>touhidnajeerquresh</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>irfanilyaskhan</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>indianclearingcorpor</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>truecreditspvtlt</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>nationalhighwaytru</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>redvelvetthecake</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>shabnamanwar</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>magicpin</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>pushpadevinagendra</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>mohdirfanamirahme</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>indrakumarsingh</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>hirsinghrajput</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>hirageneralstores</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>atwarikartikpandit</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>orangemedicals</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>khanmohammedsiraj</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>noordiagnosticcent</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>krazybee</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>riyazali</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>bismillahstore</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>addmoneytowallet</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>gppb</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>muhammedarshadaala</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>campjuicecentre</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>mrshaikhahmedraza</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>highwayautomobiles</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>missnikitayadav</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>nextbilliontechnolonishvig</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>mayankjain</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>irshadmohammadmans</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>mrjabirali</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>shreeganesh</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>bycullaservicestat</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>mahendrajairajtamb</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>googleindiadigital</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>sangam</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>amritamanojkeswani</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>premsinghsardarsing</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>khajamahuddinsyed</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>fahadsajidalishai</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>hitendravijaykumar</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>rajkumarm</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>quartershospitalit</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>surajkumar</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>vimlashawlsprop</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>iramriyazkhan</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>shadowfaxtechnologi</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>growwnbt</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>mohdibrahimabdul</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>shaheenajafardamka</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>shaikhmohammedimra</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>branch</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>hussainmehmoodkhan</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>naturalschembur</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>ashishkumarjaswant</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>digiotechsolutions</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>mohdm</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>bablidevi</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>aartisunilhinduja</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>moeedahmed</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>rahmaangeneralstor</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>thronestechnologies</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>branchinternational</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>rimarajendrakumars</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>pushparajenterprise</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>hiteshsunilpatil</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>amazonpaygroceries</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ashokramashankarya</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>hirjiravjipatel</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>ahmadfarooqkaradiy</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>hasmukhraiandcogh</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>shabinaanwarquresh</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>mohdgulamsabirkha</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>rubiyaarubiyaa</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>raisliyakatkhan</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>babasnackscorner</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>aminbhaidaudbhaikh</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>shilpasushantpande</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>pramodgovindnair</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>khannoorullahrafat</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>snehalatasantoshma</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>govind</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>accverification</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>shagirchotukhanpat</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>ribbonsandballoons</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>anandcsachdev</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>jalaluddinshah</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>ritikaravindraprak</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>ronakgurudasvarava</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>krazybeeservicespv</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>tusharmanojchugh</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>alihazrat</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>rev qureshi</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>razorpay</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>maqsoodkhan</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>taitanbakery</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>abflpostpaid</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>ismailkhan</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>orangemedical</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>mshsdautocarecen</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>chalo</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>faiyazqureshi</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>qualitycaterers</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>mariasiluvaimnadar</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>kundankumar</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>mrpratikkumardine</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>shoaibabdulrashid</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>yohananthonydsouza</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>bkdesignercollect</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>msvaishnavivikass</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>krishnabhanda</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>shreekrishnastores</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>rashidmusttafa</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>ajrulsk</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>friedchickencuisin</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>aryavipulshukl</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>indumatipatne</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>bcb</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>mobikwikmerchant</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>euronetgpay</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>jagmeetsinghmiddha</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>msvijanmedicalan</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>mrskiranvinodkalw</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>sagarkishorevazira</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>tulsigangamedical</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>rrfashionhouse</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>deepsingh</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>shanepunjab</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>achhelalbind</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>priyashankar</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>pranavsobhupender</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>tirupatiassociates</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>ashwinianantkondvi</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>rapido</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>gurpreetsingh</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>laljibeedishop</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>ansarimohddanish</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>akhileshkumarbind</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>swagathrefreshment</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>mohdzubairishaqie</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>jitensahni</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>zakirullasalamatula</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>newmaamedicalstor</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>wwwfacebookcomads</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>puransinghnibsingh</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>manjuadaikalamfern</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>singhdevi</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>vickykumar</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>surinderpal</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>neelkamalfillingst</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>piyushpalsosurind</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>alidevi</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>mrnokhuram</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>chiragdhaba</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>wowmomochemburmum</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>indianclearingcorp</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>billionbrainsgarage</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>ramjanamgupta</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>manojgopaldasmadn</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>chinamagic</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>manishravindrapati</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>harshalgeneralstor</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>jineetthakkar</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>rkenterprises</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>mattagurucharansin</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>azadlatifkhan</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>vaidjaysukhharakha</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>merwans</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>punjabdairyandgen</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>amarendrachaudhary</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>ramchandrapal</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>neeraj</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>seemadevi</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>kunwarbahadur</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>nmsnareshmultisto</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>sukhdevsingh</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>armanhussain</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>ziauddin</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>bablisharma</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>swatibhatia</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>fashionbeautycentr</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>yadavmilkcentre</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>sonufashion</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>eshamohansinghmal</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>anilrameshsharma</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>leenasunilwadhare</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>manojkumarnirmal</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>paljag</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>mohdmushtaquemohdyaq</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>afzalsmaofamilyr</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>shivanandguptaso</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>sanjaybalkrishnas</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>niyazullahshafatull</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>yewaleaytm</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>dimplemahaveernaga</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>kiranandgeneralst</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>dayanandnarayanpoo</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>sakshamenterprises</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>amardevdinanathpra</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>khemanandpharma</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>laltaprasadrkeshar</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>vickyjewellery</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>madanlalaggarwal</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>jaspreetsingh</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>leeladevi</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>punamsharma</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>tenzinpenthok</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>mspemayangchen</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>tabasumkamallones</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>sureshkumarsojodh</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>umangnareshjain</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>mrmdazam</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>shubhamelectrichar</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>ronakgurudas</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>vaneetkumar</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>ghodkesudeshkantil</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>dhruvharishnambiar</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>sanskardnyaneshwarkicici</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>sanskardnyaneshwar</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>sahilvijaygaikwad</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>vinodkumarharinaray</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>kusumrolls</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>diptishampuri</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>niranjbinesh</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>msshreechamunda</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>shreesiddhivinayak</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>ashapraveenbangera</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>jandgretails</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>purnachandradas</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>chandanstoresdryfr</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>dhammickbhimrajshi</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>saikrupasnackscor</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>aqibaltamashshaikh</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>hajitikkacorner</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>varunsrinivasdasar</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>dollysmobile</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>pradhanpanbhandar</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>instaloan</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>shahanchorkutchhienggcollege</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>tabassumalimrehman</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>jagadishsahebraopa</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>deepakdoulatrammans</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>amaannaushadshaikh</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>sandeepshankardhul</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>moimran</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>ranjankumarparit</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>osamaabdussalamkha</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>mastermohammedumai</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>ansariamanjavedah</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>mrnabilshakeelbad</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>missreenadevi</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>durgabahadurmuktan</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>globalremittance</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>sureshmahadumandav</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>sachinsanathandhav</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>ssenterprises</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>mmuralikrishnan</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>shaikhteahouse</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>zahidtariqhussain</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>restaurantbrandsas</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>khatabook</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>meghnathatwaripand</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>mastermansoormainu</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>cafenooranimilkda</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>sahilcsc</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>shoaibmohdumerqur</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>kamaldyersandclea</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>popularmedicalstor</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>swethambarirangaraj</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>pramodkaripumannil</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>arammilkbar</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>newshettycatering</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>riyajahamadrahamat</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>shettyautoservices</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>mohdrizwantayubali</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>mohdsaydahusain</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>aminahmadsunasara</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>mokareem</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>shersinghsojabba</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>alfaxerox</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>mohammedyusuf</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>yogeshkarwadkar</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>praveshlaxmanyadav</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>vishalvishwasshind</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>eggsvariety</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>saeedanwarshaikh</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>bharatwineshop</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>shubhamsanjaydhuma</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>sudhanshudevidasra</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>noblemedicals</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>gulammustafasoabd</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>parviomtechnologies</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>laxmimedicalgenera</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>mrjamshedkasimsay</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>gulabchandyadav</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>shreekrishnabhavan</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>govindchauhan</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>monginisnoorenterp</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>vinodgiridharigup</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>dineshkumarrajendr</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>sachinbhaiharibhai</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>praveenamarbahadur</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>conradmosesferrao</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>faisalalikhan</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>candiespalihill</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>sohamsudarshanyelv</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>mohammednasiramir</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>avraghavan</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>kiniscauseway</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>navinkumarjha</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>mohdshahnawaz</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>razorpaysoftwarepv</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>panarashobhanarasi</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>jyotipal</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>rakeshkumar</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>mmoghatkopar</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>maheshnarayanvh</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>maheshnarayannadar</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>mrrameshvilasyeda</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>madhavchemistandl</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>mahavirmedicaland</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>sanjivservicestati</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>sahiltm</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>mohammadwasimkhan</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>abdulwahid</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>ratanteastall</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>bherulalkalulaljai</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>rishikeshsatishpan</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>rajashreejayprakash</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>jayeshprbhakarmhat</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>siddhisaigeneralst</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>ajaylalmunigupta</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>kalpataruretailven</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>rajkumarpal</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>manojgmadnani</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>harshvinodwadhwa</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>shreesavariyaicec</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>aveshismailansari</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>pritamhardware</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>vidyavatisshetty</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>hemantautomobilese</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>instantpayindialim</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>iqbal</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>tinkusah</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>rutujasahebrao</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>ajinkyavijaysurve</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>chatlaaakshunrames</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>shamser</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>mohdatifshaikh</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>indusfillingstation</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>aryanchandrakantan</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>shaguftanasirqures</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>mohdarifmohdanis</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>mohanlalmotiramjos</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>poojariraghavedrav</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>vishnup</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>mohdumair</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>wasiuzzamanabdultawa</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>sirajkhan</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>rzpxprivatelimitednodalaccount</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>niyamatkhan</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>shyamkumaryadav</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>moneyview</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>poonamautoservices</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>sahilkishorevazira</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>chaapsandmore</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>jitendrakumarchhat</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>shrisitlamatafars</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>gulfamansari</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>vaswanibookdepot</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>laxmanlalteli</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>omkarnathpal</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>laxmikantharendrad</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>powerlook</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>amazonpayy</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>shabnamfatmaummeed</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>saileelaenterprises</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>hasibulllahmobilec</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>rohinibandunaik</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>ziarulislam</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>mrsurajramlakhan</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>bharuchaautoservic</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>dvdptechnologiespr</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>relianceindustries</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>satkarfitness</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>nafismuttonshop</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>shaikhmehboobmakab</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>pmckp</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>siddquiaaminafsar</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>kiransuzuki</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>shashiprafulsachde</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>vijaybpawar</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>chandmiyanshamshuddi</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>credpayeatsure</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>tabrezalammubinqu</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>mohsinanwarhusainsha</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>jainulavadinmohdg</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>mohammadsohailkhan</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>mrzaidchandrikas</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>melangebox</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>badredanishshamsud</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>parnavonlinesoluti</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>hiteshrameshbhoj</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>salunkevivekvinu</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>bhanushaliaryannil</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>pos xxxxxx</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>inlakschemist</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>dayyanmoinuddinkha</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>kundankamleshkumar</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>fatemahakimudaipurwa</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>sudarshanpal</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>salawddinmohdhusen</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>naturalsbandra</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>thelamproom</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>mohdtahirmohdisha</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>sanamaaz</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>mdomarfarukmandal</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>mehadisuhelkhan</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>vishwanathvinayaks</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>sameerarshadshaikh</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>shreerampavbhaji</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>dineshmohanlalchou</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>mukhtarabdulsattar</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>mohammadarifshamsu</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>ozerismailansari</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>irfanchotekhan</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>abdulrahman</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>tatacliq</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>savlahospital</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>pinkpharmacyservic</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>kjsomaiyamedical</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>ishromedicalgenera</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>rohitchandaram</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>rohitchandaramchou</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>sameerarshadsn</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>cbdt</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>jayeshbookagency</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>anandakhileshkumar</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>mrganeshbharatrao</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>nisharavijoshi</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>msswethambariranga</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>vinodkumarsingh</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>jaiswarrajendrapra</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>virendrageneralsto</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>mahavirchikki</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>vishalrana</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>shalujjitendragup</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>shycafeandrestaur</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>mastergauravdhanaj</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>ghanshyam</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>choudharyenterprise</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>sahidlatifansari</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>kamalnathyadvendra</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>adilejazshaikh</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>mrezazrafiqshaikh</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>shambhaviah</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>mrsajauddin</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>chalomobilitypriva</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>abdulrazakp</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>namdeogangaramkicici</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>namdeogangarammore</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>ibrahimsuroorkhan</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>theindianfilmcomb</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>croma</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>shaikhfazlurehman</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>sahilcornerstore</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>maharashtrauniversi</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>newgenericadharme</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>jayarefreshment</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>nextbillionesb</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>rajeshmohantymohant</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>kuntalprakashoksbi</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>ashaomprakashmakde</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>uzaifansari</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>abdulsalamranje</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>upimerchant</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>mdarif</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>jagdishvijaybahadu</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>jiomart</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>sabban</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>momonish</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>mohdnaushadayubha</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>newjaswantelectric</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>rihanali</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>nabiahmedshaikh</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>aiyaz</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>laljibidishop</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>shreemahaveerchemi</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>mop</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>raeesahmedshaikh</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>vishalgupta</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>yewaleamritulya</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>rcitymall</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>pranjalprakashsaw</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>shahanchorkutchhi</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>mrramachandranmasa</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>saikrupamedicalg</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>diamondautoservice</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>rev poojanvig</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>gurukrupaprovision</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>mdmastanaansari</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>pawaskaryogeshchan</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>niceenterprises</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>mohammadmehtabmoha</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>mdsultan</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>shahbazalishoukat</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>jafarmehdisarwarm</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>rakeshdmestry</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>kapilmaheshwariso</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>unitedmotorstores</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>shaikhashrafkamaru</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>parvezmohdachchan</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>alaikalights</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>pansaresaylidattat</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>pay</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>msrabkaasenterprise</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>msshreekiranasto</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>rizwanahmedansari</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>differentcollection</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>rishmunisingh</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>shaikhabufaishalf</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>arbazsultankhan</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>moisrail</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>mdpravez</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>gavahaneshivajigan</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>pradhumshambhunath</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>chandrakantppatel</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>nextbilliontechnolo</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>sampathshettigar</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>kuntalprakashthaku</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>shahidilyasasamdi</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>vouchpaytechnologie</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>ganeshmawamisthan</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>softfixtechnologies</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>zahidfaluda</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>paysenseservicesin</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>laxminarasimhareal</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>h.rtraders</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>mrsmaimunissagulsh</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>shreemanjunathlunc</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>mohammadrezaabbas</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>nextbilliontechnologyprivatelimitedclientacco</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>manishpanipuri</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>vinodchandrakantja</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>dhannajaybiswkarma</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>jjdreamzzprivatel</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>mrssanaabdulrashi</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>farmanashrafansari</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>icicimerchantservice</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>mohammedtauheedmoham</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>abdulkalamfaruki</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>omegatraders</t>
+        </is>
+      </c>
+      <c r="B747" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>prasadbabajimanche</t>
+        </is>
+      </c>
+      <c r="B748" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>rehanalamkhurshed</t>
+        </is>
+      </c>
+      <c r="B749" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>nizam</t>
+        </is>
+      </c>
+      <c r="B750" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>sawlila</t>
+        </is>
+      </c>
+      <c r="B751" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>mewalaljamunaprasad</t>
+        </is>
+      </c>
+      <c r="B752" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>spshahco</t>
+        </is>
+      </c>
+      <c r="B753" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>safexpaytechnologie</t>
+        </is>
+      </c>
+      <c r="B754" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>gaikwadsachinashok</t>
+        </is>
+      </c>
+      <c r="B755" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>gayasuddeen</t>
+        </is>
+      </c>
+      <c r="B756" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>psindiaservices</t>
+        </is>
+      </c>
+      <c r="B757" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>taxpertprofessionalsprivatelimited</t>
+        </is>
+      </c>
+      <c r="B758" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>shahnawazmustaqahm</t>
+        </is>
+      </c>
+      <c r="B759" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>subhanahmedansari</t>
+        </is>
+      </c>
+      <c r="B760" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>santoshjawahargupta</t>
+        </is>
+      </c>
+      <c r="B761" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>nileshbherulalrath</t>
+        </is>
+      </c>
+      <c r="B762" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>sunilshankarthokal</t>
+        </is>
+      </c>
+      <c r="B763" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>mohdalitahakalbe</t>
+        </is>
+      </c>
+      <c r="B764" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>earlysalarypchfldi</t>
+        </is>
+      </c>
+      <c r="B765" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>sameershaikh</t>
+        </is>
+      </c>
+      <c r="B766" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>ruwabalibasharata</t>
+        </is>
+      </c>
+      <c r="B767" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>vikashkumar</t>
+        </is>
+      </c>
+      <c r="B768" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>whizdmfinance</t>
+        </is>
+      </c>
+      <c r="B769" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>shahnawaz</t>
+        </is>
+      </c>
+      <c r="B770" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>ajamatali</t>
+        </is>
+      </c>
+      <c r="B771" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>vidyanavnatht</t>
+        </is>
+      </c>
+      <c r="B772" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>mohdasim</t>
+        </is>
+      </c>
+      <c r="B773" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>mrsujitbhaskarkad</t>
+        </is>
+      </c>
+      <c r="B774" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>chemburxerox</t>
+        </is>
+      </c>
+      <c r="B775" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>sandeeppandey</t>
+        </is>
+      </c>
+      <c r="B776" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>anwarabdulkhaliks</t>
+        </is>
+      </c>
+      <c r="B777" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>sherlymedicalandg</t>
+        </is>
+      </c>
+      <c r="B778" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>sajidqureshi</t>
+        </is>
+      </c>
+      <c r="B779" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>kausarsajidahmeda</t>
+        </is>
+      </c>
+      <c r="B780" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>credutility</t>
+        </is>
+      </c>
+      <c r="B781" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>tapitstechnologies</t>
+        </is>
+      </c>
+      <c r="B782" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>breaknbite</t>
+        </is>
+      </c>
+      <c r="B783" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>missnajmaparveen</t>
+        </is>
+      </c>
+      <c r="B784" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>aasthapaanipurish</t>
+        </is>
+      </c>
+      <c r="B785" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>akilismailkhan</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>ashalathakrishnah</t>
+        </is>
+      </c>
+      <c r="B787" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>decathlon</t>
+        </is>
+      </c>
+      <c r="B788" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>aadarshnareshkusum</t>
+        </is>
+      </c>
+      <c r="B789" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>pupcakefactory</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>sudheersabhajeetpa</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>rizwanzardi</t>
+        </is>
+      </c>
+      <c r="B793" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>ayushigeneral</t>
+        </is>
+      </c>
+      <c r="B794" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>shahnawazalamejaz</t>
+        </is>
+      </c>
+      <c r="B795" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>qureshiaiyaz</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>abdullatifsiddiki</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>pravinyadav</t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>zerodhabrokingltd</t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>nafisahamad</t>
+        </is>
+      </c>
+      <c r="B800" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>shabnamanwarquresh</t>
+        </is>
+      </c>
+      <c r="B801" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>diwanmedicalstores</t>
+        </is>
+      </c>
+      <c r="B802" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>rakeshpalsoramswaroo</t>
+        </is>
+      </c>
+      <c r="B803" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>krishnadairy</t>
+        </is>
+      </c>
+      <c r="B804" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>omegastationeryand</t>
+        </is>
+      </c>
+      <c r="B805" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>mbkziprepayment</t>
+        </is>
+      </c>
+      <c r="B806" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>maheshsilver</t>
+        </is>
+      </c>
+      <c r="B807" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>atulkarshandasrajg</t>
+        </is>
+      </c>
+      <c r="B808" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>nasir</t>
+        </is>
+      </c>
+      <c r="B809" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>mrranukhan</t>
+        </is>
+      </c>
+      <c r="B810" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>mosikendar</t>
+        </is>
+      </c>
+      <c r="B811" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>abdulrehmankalumiy</t>
+        </is>
+      </c>
+      <c r="B812" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>srkrefreshmentllp</t>
+        </is>
+      </c>
+      <c r="B813" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>transunioncibillim</t>
+        </is>
+      </c>
+      <c r="B814" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>altabhusain</t>
+        </is>
+      </c>
+      <c r="B815" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>ramsamujh</t>
+        </is>
+      </c>
+      <c r="B816" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>mumbaichinese</t>
+        </is>
+      </c>
+      <c r="B817" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>blinkit</t>
+        </is>
+      </c>
+      <c r="B818" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>syedjalaltawakkoli</t>
+        </is>
+      </c>
+      <c r="B819" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>aslamsalimkhan</t>
+        </is>
+      </c>
+      <c r="B820" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>chetanmanoharkambl</t>
+        </is>
+      </c>
+      <c r="B821" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>ravikumarpatidars</t>
+        </is>
+      </c>
+      <c r="B822" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>imran</t>
+        </is>
+      </c>
+      <c r="B823" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>naginakhatoonshah</t>
+        </is>
+      </c>
+      <c r="B824" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>tahaazizmithaiwala</t>
+        </is>
+      </c>
+      <c r="B825" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>nizamuddinjamaluddi</t>
+        </is>
+      </c>
+      <c r="B826" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>fejanqureshicollec</t>
+        </is>
+      </c>
+      <c r="B827" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>azharniyazkhan</t>
+        </is>
+      </c>
+      <c r="B828" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>mohdparvez</t>
+        </is>
+      </c>
+      <c r="B829" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>hennesnmauritz</t>
+        </is>
+      </c>
+      <c r="B830" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>cwphoenixmarketci</t>
+        </is>
+      </c>
+      <c r="B831" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>bilalameensunasara</t>
+        </is>
+      </c>
+      <c r="B832" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>armanalishaikh</t>
+        </is>
+      </c>
+      <c r="B833" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>gauravrathore</t>
+        </is>
+      </c>
+      <c r="B834" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>vasantsadajimali</t>
+        </is>
+      </c>
+      <c r="B835" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>mohammedamanansari</t>
+        </is>
+      </c>
+      <c r="B836" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>lazypay</t>
+        </is>
+      </c>
+      <c r="B837" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>minakshinikhilrane</t>
+        </is>
+      </c>
+      <c r="B838" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>nandustationeryand</t>
+        </is>
+      </c>
+      <c r="B839" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>transactreetechnolo</t>
+        </is>
+      </c>
+      <c r="B840" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>akbarmungfalistall</t>
+        </is>
+      </c>
+      <c r="B841" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>kavalrytechnologies</t>
+        </is>
+      </c>
+      <c r="B842" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>shyamsundersharma</t>
+        </is>
+      </c>
+      <c r="B843" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>kaushalyadevi</t>
+        </is>
+      </c>
+      <c r="B844" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>janaksilwal</t>
+        </is>
+      </c>
+      <c r="B845" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>mohdrijwan</t>
+        </is>
+      </c>
+      <c r="B846" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>shaikhsaud</t>
+        </is>
+      </c>
+      <c r="B847" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>keshavmohanlalgela</t>
+        </is>
+      </c>
+      <c r="B848" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>vishalkajare</t>
+        </is>
+      </c>
+      <c r="B849" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>anwarhabibqureshi</t>
+        </is>
+      </c>
+      <c r="B850" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>rohitrameshwahwal</t>
+        </is>
+      </c>
+      <c r="B851" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>madhumitaajaydixit</t>
+        </is>
+      </c>
+      <c r="B852" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>mahendrasahablalgu</t>
+        </is>
+      </c>
+      <c r="B853" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>hallmarkmotorlinks</t>
+        </is>
+      </c>
+      <c r="B854" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>sameernizamilahi</t>
+        </is>
+      </c>
+      <c r="B855" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>whizdmfinancepriva</t>
+        </is>
+      </c>
+      <c r="B856" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>shaileshmishra</t>
+        </is>
+      </c>
+      <c r="B857" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>fincfriendsprivate</t>
+        </is>
+      </c>
+      <c r="B858" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>kafilahmedaqueela</t>
+        </is>
+      </c>
+      <c r="B859" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>mehboobpathan</t>
+        </is>
+      </c>
+      <c r="B860" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>anshulkishorerosia</t>
+        </is>
+      </c>
+      <c r="B861" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>hindutancorporation</t>
+        </is>
+      </c>
+      <c r="B862" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>setu</t>
+        </is>
+      </c>
+      <c r="B863" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>hostingerpteltd</t>
+        </is>
+      </c>
+      <c r="B864" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>tseringpalmo</t>
+        </is>
+      </c>
+      <c r="B865" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>dickeypassang</t>
+        </is>
+      </c>
+      <c r="B866" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>tenzini</t>
+        </is>
+      </c>
+      <c r="B867" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>tenzinthardo</t>
+        </is>
+      </c>
+      <c r="B868" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>lazypayprivatelimi</t>
+        </is>
+      </c>
+      <c r="B869" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>mohdtaufiq</t>
+        </is>
+      </c>
+      <c r="B870" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>aslamchickencorner</t>
+        </is>
+      </c>
+      <c r="B871" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>kishorkumar</t>
+        </is>
+      </c>
+      <c r="B872" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>sagarsinghsojaima</t>
+        </is>
+      </c>
+      <c r="B873" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>mohinderpalsohave</t>
+        </is>
+      </c>
+      <c r="B874" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>mrramlalmourya</t>
+        </is>
+      </c>
+      <c r="B875" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>kamalpreetsingh</t>
+        </is>
+      </c>
+      <c r="B876" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>yohananthonyokicici</t>
+        </is>
+      </c>
+      <c r="B877" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>phulkariworld</t>
+        </is>
+      </c>
+      <c r="B878" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>surinderkumarsharm</t>
+        </is>
+      </c>
+      <c r="B879" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>anilkumar</t>
+        </is>
+      </c>
+      <c r="B880" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>suvidhadepartmental</t>
+        </is>
+      </c>
+      <c r="B881" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>bilalahmadmir</t>
+        </is>
+      </c>
+      <c r="B882" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>santoshtulsidashadka</t>
+        </is>
+      </c>
+      <c r="B883" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>riyazmohdanwarqur</t>
+        </is>
+      </c>
+      <c r="B884" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>facebookindiaonlin</t>
+        </is>
+      </c>
+      <c r="B885" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
